--- a/Ijarah_Arul/TestData/ijaraTestData.xlsx
+++ b/Ijarah_Arul/TestData/ijaraTestData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="134">
   <si>
     <t>UserName</t>
   </si>
@@ -398,13 +398,40 @@
   </si>
   <si>
     <t>0371</t>
+  </si>
+  <si>
+    <t>AT_M_DOC_01</t>
+  </si>
+  <si>
+    <t>AT_M_DOC_01_D1</t>
+  </si>
+  <si>
+    <t>AT_M_DOC_02</t>
+  </si>
+  <si>
+    <t>AT_M_DOC_02_D1</t>
+  </si>
+  <si>
+    <t>userType04</t>
+  </si>
+  <si>
+    <t>0215</t>
+  </si>
+  <si>
+    <t>0172</t>
+  </si>
+  <si>
+    <t>userType05</t>
+  </si>
+  <si>
+    <t>1266</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +449,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -471,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -495,6 +535,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -504,16 +557,14 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -526,17 +577,18 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -836,7 +888,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -861,18 +913,18 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -880,22 +932,37 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>99</v>
+      <c r="B4" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="3"/>
+      <c r="A5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="3"/>
@@ -966,8 +1033,11 @@
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2" display="mailto:Admin@1"/>
     <hyperlink ref="C4" r:id="rId3" display="mailto:Admin@1"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -976,7 +1046,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -984,64 +1054,68 @@
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" thickBot="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="39.75" thickBot="1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C2">
-        <v>3063</v>
-      </c>
-      <c r="D2" s="13">
+      <c r="C2" s="1">
+        <v>3209</v>
+      </c>
+      <c r="D2" s="15">
         <v>5679</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="16" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1056,7 +1130,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1390,16 +1464,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
@@ -1615,6 +1689,40 @@
         <v>55</v>
       </c>
     </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y6">
+        <v>3426</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y7">
+        <v>3426</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1690,7 +1798,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1731,7 +1839,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1890,7 +1998,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Ijarah_Arul/TestData/ijaraTestData.xlsx
+++ b/Ijarah_Arul/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="IdentificationDetails" sheetId="8" r:id="rId8"/>
     <sheet name="CustomerReference" sheetId="9" r:id="rId9"/>
     <sheet name="Underwriter" sheetId="10" r:id="rId10"/>
+    <sheet name="Murabah_InsuranceInfo" sheetId="11" r:id="rId11"/>
+    <sheet name="Murabah_QuotationInfo" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="186">
   <si>
     <t>UserName</t>
   </si>
@@ -425,13 +427,169 @@
   </si>
   <si>
     <t>1266</t>
+  </si>
+  <si>
+    <t>Speci</t>
+  </si>
+  <si>
+    <t>Tawarraq_Identification</t>
+  </si>
+  <si>
+    <t>ClientName</t>
+  </si>
+  <si>
+    <t>insuranceQuotationId</t>
+  </si>
+  <si>
+    <t>insuranceYear</t>
+  </si>
+  <si>
+    <t>depriciation</t>
+  </si>
+  <si>
+    <t>AssetPrice</t>
+  </si>
+  <si>
+    <t>RatePerAsset</t>
+  </si>
+  <si>
+    <t>minimumInsurancePremium</t>
+  </si>
+  <si>
+    <t>BaseInsurancePremium</t>
+  </si>
+  <si>
+    <t>VATPremium</t>
+  </si>
+  <si>
+    <t>NetPremium</t>
+  </si>
+  <si>
+    <t>karthikeyan</t>
+  </si>
+  <si>
+    <t>First Year</t>
+  </si>
+  <si>
+    <t>Data Set ID</t>
+  </si>
+  <si>
+    <t>Arab National Bank</t>
+  </si>
+  <si>
+    <t>AT_MU_QIA_001</t>
+  </si>
+  <si>
+    <t>AT_MU_QIA_003</t>
+  </si>
+  <si>
+    <t>AT_MU_QIA_004</t>
+  </si>
+  <si>
+    <t>AT_MU_QIA_001_D1</t>
+  </si>
+  <si>
+    <t>AT_MU_QIA_003_D1</t>
+  </si>
+  <si>
+    <t>AT_MU_QIA_004_D1</t>
+  </si>
+  <si>
+    <t>DeductibleAmount</t>
+  </si>
+  <si>
+    <t>InsuranceCompanyBpId</t>
+  </si>
+  <si>
+    <t>GrossPremiumAmount</t>
+  </si>
+  <si>
+    <t>VatOnGrossPremiumAmount</t>
+  </si>
+  <si>
+    <t>NetGrossPremiumAmount</t>
+  </si>
+  <si>
+    <t>BasePremiumAmount</t>
+  </si>
+  <si>
+    <t>VatOnBasePremiumAmount</t>
+  </si>
+  <si>
+    <t>NetBasePremiumAmount</t>
+  </si>
+  <si>
+    <t>TotalDiscountAmount</t>
+  </si>
+  <si>
+    <t>ExpiryDate</t>
+  </si>
+  <si>
+    <t>QuotationReferenceNo</t>
+  </si>
+  <si>
+    <t>Saudi National Bank</t>
+  </si>
+  <si>
+    <t>#@#@</t>
+  </si>
+  <si>
+    <t>0305</t>
+  </si>
+  <si>
+    <t>userType06</t>
+  </si>
+  <si>
+    <t>0363</t>
+  </si>
+  <si>
+    <t>userType07</t>
+  </si>
+  <si>
+    <t>AT_INS_MU_01_D1</t>
+  </si>
+  <si>
+    <t>AT_INS_MU_01</t>
+  </si>
+  <si>
+    <t>AT_INS_MU_02</t>
+  </si>
+  <si>
+    <t>AT_INS_MU_02_D1</t>
+  </si>
+  <si>
+    <t>AT_INS_MU_04</t>
+  </si>
+  <si>
+    <t>AT_INS_MU_04_D1</t>
+  </si>
+  <si>
+    <t>userType08</t>
+  </si>
+  <si>
+    <t>in02040</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>2971</t>
+  </si>
+  <si>
+    <t>valid_search_input</t>
+  </si>
+  <si>
+    <t>invalid_search_input</t>
+  </si>
+  <si>
+    <t>!@#$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +622,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF495057"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -561,10 +732,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -576,7 +751,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -591,8 +765,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -885,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -896,9 +1078,10 @@
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -909,98 +1092,122 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="17" t="s">
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>133</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>130</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>131</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3">
+    <row r="7" spans="1:5">
+      <c r="A7" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:5">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:5">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:5">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:5">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:5">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:5">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
@@ -1035,9 +1242,11 @@
     <hyperlink ref="C4" r:id="rId3" display="mailto:Admin@1"/>
     <hyperlink ref="C5" r:id="rId4"/>
     <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1045,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1062,31 +1271,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1100,28 +1309,367 @@
       <c r="C2" s="1">
         <v>3209</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>5679</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>392</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <v>3588</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2">
+        <v>3588</v>
+      </c>
+      <c r="D2">
+        <v>5000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3">
+        <v>3588</v>
+      </c>
+      <c r="D3">
+        <v>3500</v>
+      </c>
+      <c r="E3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3">
+        <v>200</v>
+      </c>
+      <c r="J3">
+        <v>200</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="L3">
+        <v>200</v>
+      </c>
+      <c r="N3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4">
+        <v>3588</v>
+      </c>
+      <c r="O4">
+        <v>22</v>
+      </c>
+      <c r="P4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1467,7 +2015,7 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2037,10 +2585,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2052,163 +2600,211 @@
     <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="19" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="H1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="11">
         <v>3242</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="11">
         <v>5555555</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <v>3242</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <v>3242</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <v>3242</v>
       </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>185</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="20" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="F1" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C2">
-        <v>3242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="C2" s="3">
+        <v>2971</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C3">
-        <v>3242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="C3" s="3">
+        <v>2971</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C4">
-        <v>3242</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="F4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ijarah_Arul/TestData/ijaraTestData.xlsx
+++ b/Ijarah_Arul/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,18 @@
     <sheet name="Underwriter" sheetId="10" r:id="rId10"/>
     <sheet name="Murabah_InsuranceInfo" sheetId="11" r:id="rId11"/>
     <sheet name="Murabah_QuotationInfo" sheetId="12" r:id="rId12"/>
+    <sheet name="Murabah_FacilityDetails" sheetId="13" r:id="rId13"/>
+    <sheet name="Murabha_Offering_DocDetails" sheetId="14" r:id="rId14"/>
+    <sheet name="Murabha_Offering_OfferDetails" sheetId="15" r:id="rId15"/>
+    <sheet name="Murabha_EmploymentDetails" sheetId="16" r:id="rId16"/>
+    <sheet name="Tawarraq_EmploymentDetails" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="292">
   <si>
     <t>UserName</t>
   </si>
@@ -583,6 +588,324 @@
   </si>
   <si>
     <t>!@#$</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Scheme</t>
+  </si>
+  <si>
+    <t>ProgramCode</t>
+  </si>
+  <si>
+    <t>FacilityType</t>
+  </si>
+  <si>
+    <t>ServicingBranch</t>
+  </si>
+  <si>
+    <t>PricingInterestIndicator</t>
+  </si>
+  <si>
+    <t>DeclaredPropertyAssetValue</t>
+  </si>
+  <si>
+    <t>DeclaredDownPaymentAmount</t>
+  </si>
+  <si>
+    <t>RequestedAmount</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>LoanTenure</t>
+  </si>
+  <si>
+    <t>MoratoriumPeriod</t>
+  </si>
+  <si>
+    <t>FutureRentalFlag</t>
+  </si>
+  <si>
+    <t>AT_M_FD_01</t>
+  </si>
+  <si>
+    <t>AT_M_FD_02</t>
+  </si>
+  <si>
+    <t>AT_M_FD_03</t>
+  </si>
+  <si>
+    <t>AT_M_FD_01_D1</t>
+  </si>
+  <si>
+    <t>AT_M_FD_02_D1</t>
+  </si>
+  <si>
+    <t>AT_M_FD_03_D1</t>
+  </si>
+  <si>
+    <t>Home Loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Loan-Ready to move / Under construction Property from Builder/Society </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ready to move / Under construction Property from Builder/Society </t>
+  </si>
+  <si>
+    <t>Income Based</t>
+  </si>
+  <si>
+    <t>Auto Leasing Loan</t>
+  </si>
+  <si>
+    <t>Fixed O Floating</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_DOC_01</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_DOC_01_D1</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_DOC_03_D1</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_DOC_03</t>
+  </si>
+  <si>
+    <t>0378</t>
+  </si>
+  <si>
+    <t>userType09</t>
+  </si>
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>DataSet ID</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_01</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_02</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_03</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_04</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_05</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_01_D1</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_04_D1</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_05_D1</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_02_D1</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_03_D1</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>0315</t>
+  </si>
+  <si>
+    <t>userType10</t>
+  </si>
+  <si>
+    <t>NatureOfEmployment</t>
+  </si>
+  <si>
+    <t>Profession</t>
+  </si>
+  <si>
+    <t>ProfessionType</t>
+  </si>
+  <si>
+    <t>StatutoryAuthority</t>
+  </si>
+  <si>
+    <t>EmploymentEndDate</t>
+  </si>
+  <si>
+    <t>EmployerPhoneExtension</t>
+  </si>
+  <si>
+    <t>NoOfPartners</t>
+  </si>
+  <si>
+    <t>NatureOfBusiness</t>
+  </si>
+  <si>
+    <t>RegisteredBusinessName</t>
+  </si>
+  <si>
+    <t>RegisteredBusinessNumber</t>
+  </si>
+  <si>
+    <t>BusinessRegistrationDate</t>
+  </si>
+  <si>
+    <t>OfficePremisesType</t>
+  </si>
+  <si>
+    <t>ShareHolderPercentage</t>
+  </si>
+  <si>
+    <t>NoOfEmployees</t>
+  </si>
+  <si>
+    <t>Self Employed</t>
+  </si>
+  <si>
+    <t>H.U.F.</t>
+  </si>
+  <si>
+    <t>ARTIST</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Rented</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>CompanyType</t>
+  </si>
+  <si>
+    <t>Employment_Period</t>
+  </si>
+  <si>
+    <t>Nature_Of_Employment</t>
+  </si>
+  <si>
+    <t>Employer_Name_Others</t>
+  </si>
+  <si>
+    <t>Employee_ID</t>
+  </si>
+  <si>
+    <t>Date_of_Joining</t>
+  </si>
+  <si>
+    <t>Employment_Type</t>
+  </si>
+  <si>
+    <t>Share_Holder_Percent</t>
+  </si>
+  <si>
+    <t>Matching_Data</t>
+  </si>
+  <si>
+    <t>Mismatching_Data</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_EMPD_06</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_EMPD_05</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_EMPD_04</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_EMPD_11</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_EMPD_12</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_EMPD_11_D1</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_EMPD_12_D1</t>
+  </si>
+  <si>
+    <t>AT_MU_EMPD_10_D1</t>
+  </si>
+  <si>
+    <t>AT_MU_EMPD_11_D1</t>
+  </si>
+  <si>
+    <t>AT_MU_EMPD_12_D1</t>
+  </si>
+  <si>
+    <t>AT_MU_EMPD_10</t>
+  </si>
+  <si>
+    <t>AT_MU_EMPD_11</t>
+  </si>
+  <si>
+    <t>AT_MU_EMPD_12</t>
+  </si>
+  <si>
+    <t>3249</t>
+  </si>
+  <si>
+    <t>3269</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_EMPD_04_D1</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_EMPD_05_D1</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_EMPD_06_D1</t>
+  </si>
+  <si>
+    <t>3300</t>
+  </si>
+  <si>
+    <t>molly</t>
+  </si>
+  <si>
+    <t>$#$#$#</t>
+  </si>
+  <si>
+    <t>userType11</t>
+  </si>
+  <si>
+    <t>userType12</t>
+  </si>
+  <si>
+    <t>0353</t>
+  </si>
+  <si>
+    <t>3032</t>
   </si>
 </sst>
 </file>
@@ -638,7 +961,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,8 +1004,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -731,6 +1060,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -739,7 +1079,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -772,6 +1112,16 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1070,15 +1420,15 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1184,20 +1534,48 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="3"/>
@@ -1244,9 +1622,13 @@
     <hyperlink ref="C6" r:id="rId5"/>
     <hyperlink ref="C7" r:id="rId6"/>
     <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C11" r:id="rId9"/>
+    <hyperlink ref="C13" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -1258,16 +1640,16 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1299,7 +1681,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="27.6">
       <c r="A2" s="1" t="s">
         <v>120</v>
       </c>
@@ -1342,20 +1724,20 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1492,27 +1874,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1669,6 +2051,1014 @@
   <hyperlinks>
     <hyperlink ref="P4" r:id="rId1"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2">
+        <v>3588</v>
+      </c>
+      <c r="D2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K2">
+        <v>50000</v>
+      </c>
+      <c r="L2">
+        <v>500</v>
+      </c>
+      <c r="N2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3">
+        <v>3588</v>
+      </c>
+      <c r="D3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3">
+        <v>50000</v>
+      </c>
+      <c r="L3">
+        <v>500</v>
+      </c>
+      <c r="N3" t="s">
+        <v>212</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4">
+        <v>3047</v>
+      </c>
+      <c r="D4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J4" t="s">
+        <v>211</v>
+      </c>
+      <c r="K4">
+        <v>50000</v>
+      </c>
+      <c r="L4">
+        <v>500</v>
+      </c>
+      <c r="N4" t="s">
+        <v>212</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AA3"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="26" max="26" width="24.88671875" customWidth="1"/>
+    <col min="27" max="27" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="1">
+        <v>895568</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="1">
+        <v>5</v>
+      </c>
+      <c r="T2" s="1">
+        <v>5</v>
+      </c>
+      <c r="U2" s="1">
+        <v>5</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="28">
+        <v>45239</v>
+      </c>
+      <c r="J2">
+        <v>55</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>253</v>
+      </c>
+      <c r="M2" t="s">
+        <v>256</v>
+      </c>
+      <c r="N2">
+        <v>44</v>
+      </c>
+      <c r="O2" s="28">
+        <v>45239</v>
+      </c>
+      <c r="P2" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q2">
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <v>22</v>
+      </c>
+      <c r="S2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="28">
+        <v>45239</v>
+      </c>
+      <c r="J3">
+        <v>55</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>253</v>
+      </c>
+      <c r="M3" t="s">
+        <v>256</v>
+      </c>
+      <c r="N3">
+        <v>44</v>
+      </c>
+      <c r="O3" s="28">
+        <v>45239</v>
+      </c>
+      <c r="P3" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q3">
+        <v>15</v>
+      </c>
+      <c r="R3">
+        <v>22</v>
+      </c>
+      <c r="S3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="28">
+        <v>45239</v>
+      </c>
+      <c r="J4">
+        <v>55</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>253</v>
+      </c>
+      <c r="M4" t="s">
+        <v>256</v>
+      </c>
+      <c r="N4">
+        <v>44</v>
+      </c>
+      <c r="O4" s="28">
+        <v>45239</v>
+      </c>
+      <c r="P4" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q4">
+        <v>15</v>
+      </c>
+      <c r="R4">
+        <v>22</v>
+      </c>
+      <c r="S4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="T5" t="s">
+        <v>286</v>
+      </c>
+      <c r="U5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" t="s">
+        <v>252</v>
+      </c>
+      <c r="H6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="28">
+        <v>45239</v>
+      </c>
+      <c r="J6">
+        <v>55</v>
+      </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>253</v>
+      </c>
+      <c r="M6" t="s">
+        <v>256</v>
+      </c>
+      <c r="N6">
+        <v>44</v>
+      </c>
+      <c r="O6" s="28">
+        <v>45239</v>
+      </c>
+      <c r="P6" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q6">
+        <v>15</v>
+      </c>
+      <c r="R6">
+        <v>22</v>
+      </c>
+      <c r="S6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1681,13 +3071,13 @@
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2014,37 +3404,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="7" customFormat="1">
@@ -2285,10 +3675,10 @@
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2349,10 +3739,10 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2390,13 +3780,13 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="10" customFormat="1">
@@ -2549,11 +3939,11 @@
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2588,20 +3978,20 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2692,7 +4082,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="11" t="s">
         <v>88</v>
       </c>
@@ -2730,12 +4120,12 @@
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/Ijarah_Arul/TestData/ijaraTestData.xlsx
+++ b/Ijarah_Arul/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="Murabha_Offering_OfferDetails" sheetId="15" r:id="rId15"/>
     <sheet name="Murabha_EmploymentDetails" sheetId="16" r:id="rId16"/>
     <sheet name="Tawarraq_EmploymentDetails" sheetId="17" r:id="rId17"/>
+    <sheet name="CustomerPersonalDetails" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="359">
   <si>
     <t>UserName</t>
   </si>
@@ -434,9 +435,6 @@
     <t>1266</t>
   </si>
   <si>
-    <t>Speci</t>
-  </si>
-  <si>
     <t>Tawarraq_Identification</t>
   </si>
   <si>
@@ -827,12 +825,6 @@
     <t>Share_Holder_Percent</t>
   </si>
   <si>
-    <t>Matching_Data</t>
-  </si>
-  <si>
-    <t>Mismatching_Data</t>
-  </si>
-  <si>
     <t>AT_TW_AD_EMPD_06</t>
   </si>
   <si>
@@ -875,9 +867,6 @@
     <t>3249</t>
   </si>
   <si>
-    <t>3269</t>
-  </si>
-  <si>
     <t>AT_TW_AD_EMPD_04_D1</t>
   </si>
   <si>
@@ -906,6 +895,219 @@
   </si>
   <si>
     <t>3032</t>
+  </si>
+  <si>
+    <t>RelationshipType</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>CustomerFullName</t>
+  </si>
+  <si>
+    <t>IdentificationType</t>
+  </si>
+  <si>
+    <t>IdentificationNumber</t>
+  </si>
+  <si>
+    <t>ResidenceAddress</t>
+  </si>
+  <si>
+    <t>OfficeAddress</t>
+  </si>
+  <si>
+    <t>ContactNumber</t>
+  </si>
+  <si>
+    <t>OfficePhoneNumber</t>
+  </si>
+  <si>
+    <t>PrimaryMobileNumber</t>
+  </si>
+  <si>
+    <t>AlternativeMobileNumber</t>
+  </si>
+  <si>
+    <t>EmailId</t>
+  </si>
+  <si>
+    <t>NoOfYearsKnown</t>
+  </si>
+  <si>
+    <t>CIFNumber</t>
+  </si>
+  <si>
+    <t>Brother's wife</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>testtest</t>
+  </si>
+  <si>
+    <t>AADHAR</t>
+  </si>
+  <si>
+    <t>aaa@d.com</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_01</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_02</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_03</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_04</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_05</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_06</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_01_D1</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_02_D1</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_03_D1</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_04_D1</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_05_D1</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_06_D1</t>
+  </si>
+  <si>
+    <t>#$#$#$</t>
+  </si>
+  <si>
+    <t>Daughter's son</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>eee</t>
+  </si>
+  <si>
+    <t>fff</t>
+  </si>
+  <si>
+    <t>testmod</t>
+  </si>
+  <si>
+    <t>ccc@c.com</t>
+  </si>
+  <si>
+    <t>#$$#$#</t>
+  </si>
+  <si>
+    <t>787878787878</t>
+  </si>
+  <si>
+    <t>545454545454</t>
+  </si>
+  <si>
+    <t>9292959592</t>
+  </si>
+  <si>
+    <t>9696969696</t>
+  </si>
+  <si>
+    <t>9598959855</t>
+  </si>
+  <si>
+    <t>8585858585</t>
+  </si>
+  <si>
+    <t>9393939393</t>
+  </si>
+  <si>
+    <t>9494949491</t>
+  </si>
+  <si>
+    <t>9879879877</t>
+  </si>
+  <si>
+    <t>9292959597</t>
+  </si>
+  <si>
+    <t>AT_M_CDC_01</t>
+  </si>
+  <si>
+    <t>AT_M_CDC_02</t>
+  </si>
+  <si>
+    <t>AT_M_CDC_03</t>
+  </si>
+  <si>
+    <t>AT_M_CDC_04</t>
+  </si>
+  <si>
+    <t>AT_M_CDC_01_D1</t>
+  </si>
+  <si>
+    <t>AT_M_CDC_02_D1</t>
+  </si>
+  <si>
+    <t>AT_M_CDC_03_D1</t>
+  </si>
+  <si>
+    <t>AT_M_CDC_04_D1</t>
+  </si>
+  <si>
+    <t>3572</t>
+  </si>
+  <si>
+    <t>0369</t>
+  </si>
+  <si>
+    <t>userType13</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>fdsf</t>
+  </si>
+  <si>
+    <t>0352</t>
+  </si>
+  <si>
+    <t>userType14</t>
+  </si>
+  <si>
+    <t>3968</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1281,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1122,6 +1324,10 @@
     <xf numFmtId="49" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1419,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1453,7 +1659,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1502,10 +1708,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1513,10 +1719,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1524,21 +1730,21 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1546,10 +1752,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1557,10 +1763,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="18" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1568,22 +1774,36 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="3"/>
@@ -1626,9 +1846,11 @@
     <hyperlink ref="C11" r:id="rId9"/>
     <hyperlink ref="C13" r:id="rId10"/>
     <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C14" r:id="rId12"/>
+    <hyperlink ref="C15" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -1748,34 +1970,34 @@
         <v>6</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>43</v>
@@ -1783,13 +2005,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1806,17 +2028,17 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>392</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F3" s="1">
         <v>10</v>
@@ -1845,10 +2067,10 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1902,43 +2124,43 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" t="s">
         <v>156</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>157</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>158</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>159</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>160</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>161</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>162</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>163</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>164</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>165</v>
-      </c>
-      <c r="N1" t="s">
-        <v>166</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>100</v>
@@ -1949,10 +2171,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2">
         <v>3588</v>
@@ -1961,7 +2183,7 @@
         <v>5000</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -1991,10 +2213,10 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3">
         <v>3588</v>
@@ -2003,7 +2225,7 @@
         <v>3500</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -2032,10 +2254,10 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4">
         <v>3588</v>
@@ -2044,7 +2266,7 @@
         <v>22</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2089,81 +2311,81 @@
         <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2">
         <v>3588</v>
       </c>
       <c r="D2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" t="s">
         <v>206</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>207</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>208</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>209</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>210</v>
-      </c>
-      <c r="J2" t="s">
-        <v>211</v>
       </c>
       <c r="K2">
         <v>50000</v>
@@ -2172,7 +2394,7 @@
         <v>500</v>
       </c>
       <c r="N2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O2">
         <v>10</v>
@@ -2181,36 +2403,36 @@
         <v>10</v>
       </c>
       <c r="Q2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3">
         <v>3588</v>
       </c>
       <c r="D3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" t="s">
         <v>206</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>207</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>208</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>209</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>210</v>
-      </c>
-      <c r="J3" t="s">
-        <v>211</v>
       </c>
       <c r="K3">
         <v>50000</v>
@@ -2219,7 +2441,7 @@
         <v>500</v>
       </c>
       <c r="N3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O3">
         <v>10</v>
@@ -2228,36 +2450,36 @@
         <v>10</v>
       </c>
       <c r="Q3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4">
         <v>3047</v>
       </c>
       <c r="D4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" t="s">
         <v>206</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>207</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>208</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>209</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>210</v>
-      </c>
-      <c r="J4" t="s">
-        <v>211</v>
       </c>
       <c r="K4">
         <v>50000</v>
@@ -2266,7 +2488,7 @@
         <v>500</v>
       </c>
       <c r="N4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O4">
         <v>10</v>
@@ -2275,7 +2497,7 @@
         <v>10</v>
       </c>
       <c r="Q4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2288,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2386,10 +2608,10 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>31</v>
@@ -2452,17 +2674,17 @@
         <v>42</v>
       </c>
       <c r="Y2" s="26" t="s">
-        <v>232</v>
+        <v>358</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2487,10 +2709,14 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
+        <v>358</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2513,10 +2739,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>220</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>221</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>43</v>
@@ -2524,57 +2750,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>231</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2584,10 +2810,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2616,58 +2842,58 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>220</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>221</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="J1" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="K1" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="L1" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="N1" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="O1" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="P1" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="Q1" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>247</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>248</v>
       </c>
       <c r="S1" s="27" t="s">
         <v>30</v>
@@ -2681,28 +2907,28 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>280</v>
-      </c>
       <c r="D2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" t="s">
         <v>249</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>250</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>251</v>
       </c>
-      <c r="G2" t="s">
-        <v>252</v>
-      </c>
       <c r="H2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I2" s="28">
         <v>45239</v>
@@ -2714,10 +2940,10 @@
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N2">
         <v>44</v>
@@ -2726,7 +2952,7 @@
         <v>45239</v>
       </c>
       <c r="P2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q2">
         <v>15</v>
@@ -2735,33 +2961,33 @@
         <v>22</v>
       </c>
       <c r="S2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="25" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" t="s">
         <v>249</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>250</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>251</v>
       </c>
-      <c r="G3" t="s">
-        <v>252</v>
-      </c>
       <c r="H3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I3" s="28">
         <v>45239</v>
@@ -2773,10 +2999,10 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N3">
         <v>44</v>
@@ -2785,7 +3011,7 @@
         <v>45239</v>
       </c>
       <c r="P3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q3">
         <v>15</v>
@@ -2794,33 +3020,39 @@
         <v>22</v>
       </c>
       <c r="S3" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="T3" t="s">
+        <v>355</v>
+      </c>
+      <c r="U3" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="25" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" t="s">
         <v>249</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>250</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>251</v>
       </c>
-      <c r="G4" t="s">
-        <v>252</v>
-      </c>
       <c r="H4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I4" s="28">
         <v>45239</v>
@@ -2832,10 +3064,10 @@
         <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N4">
         <v>44</v>
@@ -2844,7 +3076,7 @@
         <v>45239</v>
       </c>
       <c r="P4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q4">
         <v>15</v>
@@ -2853,83 +3085,7 @@
         <v>22</v>
       </c>
       <c r="S4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="T5" t="s">
-        <v>286</v>
-      </c>
-      <c r="U5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="D6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E6" t="s">
-        <v>250</v>
-      </c>
-      <c r="F6" t="s">
-        <v>251</v>
-      </c>
-      <c r="G6" t="s">
-        <v>252</v>
-      </c>
-      <c r="H6" t="s">
-        <v>213</v>
-      </c>
-      <c r="I6" s="28">
-        <v>45239</v>
-      </c>
-      <c r="J6">
-        <v>55</v>
-      </c>
-      <c r="K6">
-        <v>12</v>
-      </c>
-      <c r="L6" t="s">
-        <v>253</v>
-      </c>
-      <c r="M6" t="s">
-        <v>256</v>
-      </c>
-      <c r="N6">
-        <v>44</v>
-      </c>
-      <c r="O6" s="28">
-        <v>45239</v>
-      </c>
-      <c r="P6" t="s">
         <v>254</v>
-      </c>
-      <c r="Q6">
-        <v>15</v>
-      </c>
-      <c r="R6">
-        <v>22</v>
-      </c>
-      <c r="S6" t="s">
-        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2939,74 +3095,134 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:28">
       <c r="A1" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>220</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>221</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="I1" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="J1" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="L1" s="29" t="s">
+      <c r="K1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y1" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="25" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="25" t="s">
-        <v>269</v>
-      </c>
       <c r="B2" s="25" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
@@ -3017,16 +3233,32 @@
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
@@ -3037,16 +3269,32 @@
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="25" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
@@ -3057,6 +3305,222 @@
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="R6" s="31">
+        <v>45239</v>
+      </c>
+      <c r="S6" s="5">
+        <v>55</v>
+      </c>
+      <c r="T6" s="5">
+        <v>12</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="W6" s="5">
+        <v>44</v>
+      </c>
+      <c r="X6" s="31">
+        <v>45239</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>22</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E5" t="s">
+        <v>324</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3404,8 +3868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4017,10 +4481,10 @@
         <v>95</v>
       </c>
       <c r="H1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4100,7 +4564,7 @@
         <v>98</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -4114,10 +4578,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4126,9 +4590,25 @@
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:22">
       <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
@@ -4145,10 +4625,58 @@
         <v>101</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>288</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="3" t="s">
         <v>105</v>
       </c>
@@ -4160,9 +4688,8 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="3" t="s">
         <v>106</v>
       </c>
@@ -4176,9 +4703,8 @@
       <c r="E3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="3" t="s">
         <v>107</v>
       </c>
@@ -4186,7 +4712,7 @@
         <v>104</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>108</v>
@@ -4194,10 +4720,196 @@
       <c r="E4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="30">
+        <v>3832</v>
+      </c>
+      <c r="F5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" t="s">
+        <v>306</v>
+      </c>
+      <c r="H5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I5" t="s">
+        <v>307</v>
+      </c>
+      <c r="J5" t="s">
+        <v>308</v>
+      </c>
+      <c r="K5" t="s">
+        <v>309</v>
+      </c>
+      <c r="L5" t="s">
+        <v>310</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="N5">
+        <v>123</v>
+      </c>
+      <c r="O5">
+        <v>123</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="T5" t="s">
+        <v>311</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="30">
+        <v>3832</v>
+      </c>
+      <c r="H6" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="30">
+        <v>3832</v>
+      </c>
+      <c r="F7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H7" t="s">
+        <v>327</v>
+      </c>
+      <c r="I7" t="s">
+        <v>328</v>
+      </c>
+      <c r="J7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="N7">
+        <v>456</v>
+      </c>
+      <c r="O7">
+        <v>456</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="T7" t="s">
+        <v>331</v>
+      </c>
+      <c r="U7">
+        <v>7</v>
+      </c>
+      <c r="V7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C8" s="30">
+        <v>3832</v>
+      </c>
+      <c r="H8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="30">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="30">
+        <v>3832</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="T5" r:id="rId1"/>
+    <hyperlink ref="T7" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Ijarah_Arul/TestData/ijaraTestData.xlsx
+++ b/Ijarah_Arul/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="18" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,17 @@
     <sheet name="Murabha_EmploymentDetails" sheetId="16" r:id="rId16"/>
     <sheet name="Tawarraq_EmploymentDetails" sheetId="17" r:id="rId17"/>
     <sheet name="CustomerPersonalDetails" sheetId="18" r:id="rId18"/>
+    <sheet name="Murabha_OperationCheck" sheetId="19" r:id="rId19"/>
+    <sheet name="Tawarraq_comPurchaseMaker" sheetId="20" r:id="rId20"/>
+    <sheet name="AutoLoan_IdentificationDetails" sheetId="21" r:id="rId21"/>
+    <sheet name="AutoLoan_ReferenceDetails" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="436">
   <si>
     <t>UserName</t>
   </si>
@@ -1108,6 +1112,237 @@
   </si>
   <si>
     <t>3968</t>
+  </si>
+  <si>
+    <t>AT_MU_OC_01</t>
+  </si>
+  <si>
+    <t>AT_MU_OC_02</t>
+  </si>
+  <si>
+    <t>AT_MU_OC_03</t>
+  </si>
+  <si>
+    <t>AT_MU_OC_04</t>
+  </si>
+  <si>
+    <t>AT_MU_OC_05</t>
+  </si>
+  <si>
+    <t>AT_MU_OC_01_D1</t>
+  </si>
+  <si>
+    <t>AT_MU_OC_02_D1</t>
+  </si>
+  <si>
+    <t>AT_MU_OC_03_D1</t>
+  </si>
+  <si>
+    <t>AT_MU_OC_04_D1</t>
+  </si>
+  <si>
+    <t>AT_MU_OC_05_D1</t>
+  </si>
+  <si>
+    <t>4046</t>
+  </si>
+  <si>
+    <t>TATA</t>
+  </si>
+  <si>
+    <t>AssetDelivered</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>AT_TW_CSM_12_01</t>
+  </si>
+  <si>
+    <t>AT_TW_CSM_13_01</t>
+  </si>
+  <si>
+    <t>AT_TW_CSM_14</t>
+  </si>
+  <si>
+    <t>AT_TW_CSM_15</t>
+  </si>
+  <si>
+    <t>AT_TW_CSM_12_01_D1</t>
+  </si>
+  <si>
+    <t>AT_TW_CSM_13_01_D1</t>
+  </si>
+  <si>
+    <t>AT_TW_CSM_14_D1</t>
+  </si>
+  <si>
+    <t>AT_TW_CSM_15_D1</t>
+  </si>
+  <si>
+    <t>3841</t>
+  </si>
+  <si>
+    <t>AT_TW_CSM_12_02</t>
+  </si>
+  <si>
+    <t>AT_TW_CSM_13_02</t>
+  </si>
+  <si>
+    <t>AT_TW_CSM_12_02_D1</t>
+  </si>
+  <si>
+    <t>AT_TW_CSM_13_02_D1</t>
+  </si>
+  <si>
+    <t>userType15</t>
+  </si>
+  <si>
+    <t>v0169</t>
+  </si>
+  <si>
+    <t>AT_AL_IDA_01</t>
+  </si>
+  <si>
+    <t>AT_AL_IDA_02</t>
+  </si>
+  <si>
+    <t>AT_AL_IDA_03</t>
+  </si>
+  <si>
+    <t>AT_AL_IDA_04</t>
+  </si>
+  <si>
+    <t>AT_AL_IDA_05</t>
+  </si>
+  <si>
+    <t>AT_AL_IDA_06</t>
+  </si>
+  <si>
+    <t>AT_AL_IDA_07</t>
+  </si>
+  <si>
+    <t>AT_AL_IDA_01_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_IDA_02_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_IDA_03_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_IDA_04_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_IDA_05_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_IDA_06_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_IDA_07_D1</t>
+  </si>
+  <si>
+    <t>4138</t>
+  </si>
+  <si>
+    <t>IDType</t>
+  </si>
+  <si>
+    <t>IDNumber</t>
+  </si>
+  <si>
+    <t>IssueDate</t>
+  </si>
+  <si>
+    <t>IssuingAuthority</t>
+  </si>
+  <si>
+    <t>CountryOfIssue</t>
+  </si>
+  <si>
+    <t>Government of KSA</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>#@#@#@</t>
+  </si>
+  <si>
+    <t>####</t>
+  </si>
+  <si>
+    <t>CPR</t>
+  </si>
+  <si>
+    <t>Government of Bahrain</t>
+  </si>
+  <si>
+    <t>AT_AL_APPDATAENTRY_REFDETAILS_03</t>
+  </si>
+  <si>
+    <t>AT_AL_APPDATAENTRY_REFDETAILS_04</t>
+  </si>
+  <si>
+    <t>AT_AL_APPDATAENTRY_REFDETAILS_05</t>
+  </si>
+  <si>
+    <t>AT_AL_APPDATAENTRY_REFDETAILS_07</t>
+  </si>
+  <si>
+    <t>AT_AL_APPDATAENTRY_REFDETAILS_08</t>
+  </si>
+  <si>
+    <t>AT_AL_APPDATAENTRY_REFDETAILS_09</t>
+  </si>
+  <si>
+    <t>AT_AL_APPDATAENTRY_REFDETAILS_10</t>
+  </si>
+  <si>
+    <t>AT_AL_APPDATAENTRY_REFDETAILS_03_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_APPDATAENTRY_REFDETAILS_04_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_APPDATAENTRY_REFDETAILS_05_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_APPDATAENTRY_REFDETAILS_07_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_APPDATAENTRY_REFDETAILS_08_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_APPDATAENTRY_REFDETAILS_09_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_APPDATAENTRY_REFDETAILS_10_D1</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>##$$##</t>
+  </si>
+  <si>
+    <t>Multinational Company (MNC)</t>
+  </si>
+  <si>
+    <t>ACCOUNTANT</t>
+  </si>
+  <si>
+    <t>TEMPORARY</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Owned</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1861,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1798,16 +2033,23 @@
       <c r="A15" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="3"/>
@@ -1848,9 +2090,10 @@
     <hyperlink ref="C12" r:id="rId11"/>
     <hyperlink ref="C14" r:id="rId12"/>
     <hyperlink ref="C15" r:id="rId13"/>
+    <hyperlink ref="C16" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -2510,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3097,8 +3340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3444,7 +3687,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3524,6 +3767,121 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="F5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3860,6 +4218,663 @@
       <c r="J24" s="5"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="F2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G2" s="30">
+        <v>232366</v>
+      </c>
+      <c r="J2" t="s">
+        <v>409</v>
+      </c>
+      <c r="K2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="G3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="F4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G4" s="30">
+        <v>595959</v>
+      </c>
+      <c r="J4" t="s">
+        <v>414</v>
+      </c>
+      <c r="K4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="G5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="D8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G5" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" s="31">
+        <v>45239</v>
+      </c>
+      <c r="L2" s="5">
+        <v>55</v>
+      </c>
+      <c r="M2" s="5">
+        <v>12</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="P2" s="5">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="31">
+        <v>45239</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="S2" s="5">
+        <v>15</v>
+      </c>
+      <c r="T2" s="5">
+        <v>22</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="K7" s="31">
+        <v>45239</v>
+      </c>
+      <c r="L7" s="5">
+        <v>66</v>
+      </c>
+      <c r="M7" s="5">
+        <v>23</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="P7" s="5">
+        <v>99</v>
+      </c>
+      <c r="Q7" s="31">
+        <v>45239</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="S7" s="5">
+        <v>23</v>
+      </c>
+      <c r="T7" s="5">
+        <v>44</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Ijarah_Arul/TestData/ijaraTestData.xlsx
+++ b/Ijarah_Arul/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="18" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="19" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,14 @@
     <sheet name="Tawarraq_comPurchaseMaker" sheetId="20" r:id="rId20"/>
     <sheet name="AutoLoan_IdentificationDetails" sheetId="21" r:id="rId21"/>
     <sheet name="AutoLoan_ReferenceDetails" sheetId="22" r:id="rId22"/>
+    <sheet name="AutoLoan_ManualBank" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="468">
   <si>
     <t>UserName</t>
   </si>
@@ -1343,6 +1344,102 @@
   </si>
   <si>
     <t>Owned</t>
+  </si>
+  <si>
+    <t>AT_AL_MB_01</t>
+  </si>
+  <si>
+    <t>AT_AL_MB_02</t>
+  </si>
+  <si>
+    <t>AT_AL_MB_03</t>
+  </si>
+  <si>
+    <t>AT_AL_MB_04</t>
+  </si>
+  <si>
+    <t>AT_AL_MB_05</t>
+  </si>
+  <si>
+    <t>AT_AL_MB_06</t>
+  </si>
+  <si>
+    <t>AT_AL_MB_07</t>
+  </si>
+  <si>
+    <t>AT_AL_MB_01_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_MB_02_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_MB_03_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_MB_04_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_MB_05_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_MB_06_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_MB_07_D1</t>
+  </si>
+  <si>
+    <t>asdfasdf</t>
+  </si>
+  <si>
+    <t>AccountHolderName</t>
+  </si>
+  <si>
+    <t>BankCode</t>
+  </si>
+  <si>
+    <t>AccountBranch</t>
+  </si>
+  <si>
+    <t>BankAccountType</t>
+  </si>
+  <si>
+    <t>BankAccountNumber</t>
+  </si>
+  <si>
+    <t>CurrencyCode</t>
+  </si>
+  <si>
+    <t>testag</t>
+  </si>
+  <si>
+    <t>salem</t>
+  </si>
+  <si>
+    <t>Card Account</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>testupdate</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Current Account</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>$$$$</t>
+  </si>
+  <si>
+    <t>Salem</t>
+  </si>
+  <si>
+    <t>EmployeeId</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1613,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1563,6 +1660,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4323,7 +4421,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E8"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4500,10 +4598,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4529,9 +4627,10 @@
     <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="24" t="s">
         <v>219</v>
       </c>
@@ -4595,8 +4694,11 @@
       <c r="U1" s="27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="27" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="25" t="s">
         <v>415</v>
       </c>
@@ -4657,7 +4759,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="A3" s="25" t="s">
         <v>416</v>
       </c>
@@ -4687,8 +4789,11 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="25" t="s">
         <v>417</v>
       </c>
@@ -4717,7 +4822,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:22">
       <c r="A5" s="25" t="s">
         <v>418</v>
       </c>
@@ -4746,7 +4851,7 @@
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:22">
       <c r="A6" s="25" t="s">
         <v>419</v>
       </c>
@@ -4779,7 +4884,7 @@
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:22">
       <c r="A7" s="25" t="s">
         <v>420</v>
       </c>
@@ -4840,7 +4945,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:22">
       <c r="A8" s="25" t="s">
         <v>421</v>
       </c>
@@ -4874,8 +4979,198 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O3" r:id="rId1"/>
+    <hyperlink ref="V3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3">
+        <v>4138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4">
+        <v>4138</v>
+      </c>
+      <c r="F4" t="s">
+        <v>457</v>
+      </c>
+      <c r="G4">
+        <v>4343</v>
+      </c>
+      <c r="H4" t="s">
+        <v>458</v>
+      </c>
+      <c r="I4" t="s">
+        <v>459</v>
+      </c>
+      <c r="J4">
+        <v>55555</v>
+      </c>
+      <c r="K4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C5">
+        <v>4138</v>
+      </c>
+      <c r="F5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C6">
+        <v>4138</v>
+      </c>
+      <c r="F6" t="s">
+        <v>461</v>
+      </c>
+      <c r="G6">
+        <v>5656</v>
+      </c>
+      <c r="H6" t="s">
+        <v>462</v>
+      </c>
+      <c r="I6" t="s">
+        <v>463</v>
+      </c>
+      <c r="J6">
+        <v>77777</v>
+      </c>
+      <c r="K6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C7">
+        <v>4138</v>
+      </c>
+      <c r="F7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>442</v>
+      </c>
+      <c r="B8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C8">
+        <v>4138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Ijarah_Arul/TestData/ijaraTestData.xlsx
+++ b/Ijarah_Arul/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="19" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="21" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,14 @@
     <sheet name="AutoLoan_IdentificationDetails" sheetId="21" r:id="rId21"/>
     <sheet name="AutoLoan_ReferenceDetails" sheetId="22" r:id="rId22"/>
     <sheet name="AutoLoan_ManualBank" sheetId="23" r:id="rId23"/>
+    <sheet name="customerDebtExcelData" sheetId="25" r:id="rId24"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="502">
   <si>
     <t>UserName</t>
   </si>
@@ -1440,13 +1441,118 @@
   </si>
   <si>
     <t>EmployeeId</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Dataset ID</t>
+  </si>
+  <si>
+    <t>address_type</t>
+  </si>
+  <si>
+    <t>address_status</t>
+  </si>
+  <si>
+    <t>residential_or_occupansy_status</t>
+  </si>
+  <si>
+    <t>location_category</t>
+  </si>
+  <si>
+    <t>address_line_1</t>
+  </si>
+  <si>
+    <t>address_line_2</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>provience_id</t>
+  </si>
+  <si>
+    <t>AT_DC_CD_001</t>
+  </si>
+  <si>
+    <t>DS01_AT_DC_CD_001</t>
+  </si>
+  <si>
+    <t>3061</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Commercial rent</t>
+  </si>
+  <si>
+    <t>Central Region</t>
+  </si>
+  <si>
+    <t>test aadress line</t>
+  </si>
+  <si>
+    <t>MAHARASHTRA</t>
+  </si>
+  <si>
+    <t>AT_DC_CD_002</t>
+  </si>
+  <si>
+    <t>DS01_AT_DC_CD_002</t>
+  </si>
+  <si>
+    <t>AT_DC_CD_003</t>
+  </si>
+  <si>
+    <t>DS01_AT_DC_CD_003</t>
+  </si>
+  <si>
+    <t>AT_M_ADC_FD_01</t>
+  </si>
+  <si>
+    <t>AT_M_ADC_FD_02</t>
+  </si>
+  <si>
+    <t>AT_M_ADC_FD_03</t>
+  </si>
+  <si>
+    <t>AT_M_ADC_FD_01_D1</t>
+  </si>
+  <si>
+    <t>AT_M_ADC_FD_02_D1</t>
+  </si>
+  <si>
+    <t>AT_M_ADC_FD_03_D1</t>
+  </si>
+  <si>
+    <t>MAL</t>
+  </si>
+  <si>
+    <t>3102</t>
+  </si>
+  <si>
+    <t>userType16</t>
+  </si>
+  <si>
+    <t>AT_TW_ADC_CD_001_D1</t>
+  </si>
+  <si>
+    <t>AT_TW_ADC_CD_001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1482,20 +1588,48 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF495057"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1544,8 +1678,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1605,15 +1745,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1644,8 +1842,7 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1661,10 +1858,31 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="7">
+    <cellStyle name="Excel_20_Built-in_20_Hyperlink" xfId="2"/>
+    <cellStyle name="Heading" xfId="3"/>
+    <cellStyle name="Heading1" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Result" xfId="5"/>
+    <cellStyle name="Result2" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1959,7 +2177,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2149,27 +2367,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="2:3">
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="1:3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="1:3">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="1:3">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="1:3">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
@@ -2189,9 +2414,10 @@
     <hyperlink ref="C14" r:id="rId12"/>
     <hyperlink ref="C15" r:id="rId13"/>
     <hyperlink ref="C16" r:id="rId14"/>
+    <hyperlink ref="C17" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -2620,16 +2846,16 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.88671875" bestFit="1" customWidth="1"/>
@@ -2645,9 +2871,11 @@
     <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -2699,8 +2927,14 @@
       <c r="Q1" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="S1" s="31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -2747,7 +2981,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -2794,7 +3028,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -2839,6 +3073,45 @@
       </c>
       <c r="Q4" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C5">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C6">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C7">
+        <v>3572</v>
+      </c>
+      <c r="R7" t="s">
+        <v>497</v>
+      </c>
+      <c r="S7" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -3014,7 +3287,7 @@
       <c r="X2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Y2" s="25" t="s">
         <v>358</v>
       </c>
       <c r="Z2" s="1"/>
@@ -3049,7 +3322,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="26" t="s">
+      <c r="Y3" s="25" t="s">
         <v>358</v>
       </c>
       <c r="Z3" s="1" t="s">
@@ -3079,68 +3352,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3162,81 +3435,81 @@
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="26" t="s">
         <v>30</v>
       </c>
       <c r="T1" s="8" t="s">
@@ -3247,13 +3520,13 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>277</v>
       </c>
       <c r="D2" t="s">
@@ -3271,7 +3544,7 @@
       <c r="H2" t="s">
         <v>212</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="27">
         <v>45239</v>
       </c>
       <c r="J2">
@@ -3289,7 +3562,7 @@
       <c r="N2">
         <v>44</v>
       </c>
-      <c r="O2" s="28">
+      <c r="O2" s="27">
         <v>45239</v>
       </c>
       <c r="P2" t="s">
@@ -3306,13 +3579,13 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>277</v>
       </c>
       <c r="D3" t="s">
@@ -3330,7 +3603,7 @@
       <c r="H3" t="s">
         <v>212</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="27">
         <v>45239</v>
       </c>
       <c r="J3">
@@ -3348,7 +3621,7 @@
       <c r="N3">
         <v>44</v>
       </c>
-      <c r="O3" s="28">
+      <c r="O3" s="27">
         <v>45239</v>
       </c>
       <c r="P3" t="s">
@@ -3371,13 +3644,13 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>277</v>
       </c>
       <c r="D4" t="s">
@@ -3395,7 +3668,7 @@
       <c r="H4" t="s">
         <v>212</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="27">
         <v>45239</v>
       </c>
       <c r="J4">
@@ -3413,7 +3686,7 @@
       <c r="N4">
         <v>44</v>
       </c>
-      <c r="O4" s="28">
+      <c r="O4" s="27">
         <v>45239</v>
       </c>
       <c r="P4" t="s">
@@ -3438,9 +3711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:AB6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -3450,54 +3721,54 @@
     <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="21" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>263</v>
       </c>
       <c r="K1" s="8" t="s">
@@ -3506,74 +3777,74 @@
       <c r="L1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AA1" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AB1" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:28">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
@@ -3592,24 +3863,24 @@
       <c r="AB2" s="5"/>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -3628,24 +3899,24 @@
       <c r="AB3" s="5"/>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -3664,13 +3935,13 @@
       <c r="AB4" s="5"/>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>281</v>
       </c>
       <c r="D5" s="5"/>
@@ -3704,13 +3975,13 @@
       <c r="AB5" s="5"/>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>281</v>
       </c>
       <c r="D6" s="5"/>
@@ -3718,7 +3989,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="31"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
         <v>282</v>
@@ -3741,7 +4012,7 @@
       <c r="Q6" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="R6" s="31">
+      <c r="R6" s="30">
         <v>45239</v>
       </c>
       <c r="S6" s="5">
@@ -3759,7 +4030,7 @@
       <c r="W6" s="5">
         <v>44</v>
       </c>
-      <c r="X6" s="31">
+      <c r="X6" s="30">
         <v>45239</v>
       </c>
       <c r="Y6" s="5" t="s">
@@ -3792,18 +4063,18 @@
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -3814,46 +4085,46 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>351</v>
       </c>
       <c r="D5" t="s">
@@ -3881,20 +4152,20 @@
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -3911,24 +4182,24 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>364</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>369</v>
       </c>
       <c r="D3" t="s">
@@ -3939,24 +4210,24 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>361</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>369</v>
       </c>
       <c r="F5" t="s">
@@ -3967,13 +4238,13 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>369</v>
       </c>
     </row>
@@ -4325,89 +4596,89 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>382</v>
       </c>
     </row>
@@ -4428,24 +4699,24 @@
   <cols>
     <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="13.5546875" customWidth="1"/>
-    <col min="10" max="10" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -4474,19 +4745,19 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>403</v>
       </c>
       <c r="F2" t="s">
         <v>310</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="29">
         <v>232366</v>
       </c>
       <c r="J2" t="s">
@@ -4497,13 +4768,13 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>403</v>
       </c>
       <c r="G3" t="s">
@@ -4511,19 +4782,19 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>403</v>
       </c>
       <c r="F4" t="s">
         <v>413</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="29">
         <v>595959</v>
       </c>
       <c r="J4" t="s">
@@ -4534,13 +4805,13 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>403</v>
       </c>
       <c r="G5" t="s">
@@ -4548,35 +4819,35 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>403</v>
       </c>
       <c r="D8" t="s">
@@ -4600,44 +4871,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -4646,66 +4917,66 @@
       <c r="E1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="26" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>403</v>
       </c>
       <c r="D2" s="5"/>
@@ -4725,7 +4996,7 @@
       <c r="J2" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="30">
         <v>45239</v>
       </c>
       <c r="L2" s="5">
@@ -4743,7 +5014,7 @@
       <c r="P2" s="5">
         <v>44</v>
       </c>
-      <c r="Q2" s="31">
+      <c r="Q2" s="30">
         <v>45239</v>
       </c>
       <c r="R2" s="5" t="s">
@@ -4760,13 +5031,13 @@
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>403</v>
       </c>
       <c r="D3" s="5"/>
@@ -4794,13 +5065,13 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>403</v>
       </c>
       <c r="D4" s="5"/>
@@ -4823,13 +5094,13 @@
       <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>403</v>
       </c>
       <c r="D5" s="5"/>
@@ -4852,13 +5123,13 @@
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>403</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -4885,13 +5156,13 @@
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>403</v>
       </c>
       <c r="D7" s="5"/>
@@ -4911,7 +5182,7 @@
       <c r="J7" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="30">
         <v>45239</v>
       </c>
       <c r="L7" s="5">
@@ -4929,7 +5200,7 @@
       <c r="P7" s="5">
         <v>99</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="30">
         <v>45239</v>
       </c>
       <c r="R7" s="5" t="s">
@@ -4946,13 +5217,13 @@
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>403</v>
       </c>
       <c r="D8" s="5"/>
@@ -4990,18 +5261,18 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
@@ -5009,19 +5280,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>101</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -5171,6 +5442,189 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.5546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="1024" width="9.109375" style="34" customWidth="1"/>
+    <col min="1025" max="16384" width="20.5546875" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>479</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>483</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="45" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>480</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+    </row>
+    <row r="5" spans="1:11" ht="13.2">
+      <c r="A5" s="41" t="s">
+        <v>501</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>500</v>
+      </c>
+      <c r="C5" s="39">
+        <v>4650</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.2">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+    </row>
+    <row r="7" spans="1:11" ht="13.2">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="1.0452999999999999" bottom="1.0452999999999999" header="0.84840000000000004" footer="0.84840000000000004"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -5752,7 +6206,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5873,7 +6327,7 @@
       <c r="H5" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5890,9 +6344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -5904,10 +6356,10 @@
     <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
@@ -6038,7 +6490,7 @@
       <c r="B5" t="s">
         <v>318</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="29">
         <v>3832</v>
       </c>
       <c r="F5" t="s">
@@ -6100,7 +6552,7 @@
       <c r="B6" t="s">
         <v>319</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="29">
         <v>3832</v>
       </c>
       <c r="H6" t="s">
@@ -6117,7 +6569,7 @@
       <c r="B7" t="s">
         <v>320</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="29">
         <v>3832</v>
       </c>
       <c r="F7" t="s">
@@ -6179,7 +6631,7 @@
       <c r="B8" t="s">
         <v>321</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <v>3832</v>
       </c>
       <c r="H8" t="s">
@@ -6193,7 +6645,7 @@
       <c r="B9" t="s">
         <v>322</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <v>3832</v>
       </c>
     </row>
@@ -6204,7 +6656,7 @@
       <c r="B10" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="29">
         <v>3832</v>
       </c>
       <c r="D10" s="3" t="s">

--- a/Ijarah_Arul/TestData/ijaraTestData.xlsx
+++ b/Ijarah_Arul/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="21" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="20" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="516">
   <si>
     <t>UserName</t>
   </si>
@@ -1543,6 +1543,48 @@
   </si>
   <si>
     <t>AT_TW_ADC_CD_001</t>
+  </si>
+  <si>
+    <t>AT_MU_AR_IDA_01</t>
+  </si>
+  <si>
+    <t>AT_MU_AR_IDA_02</t>
+  </si>
+  <si>
+    <t>AT_MU_AR_IDA_03</t>
+  </si>
+  <si>
+    <t>AT_MU_AR_IDA_04</t>
+  </si>
+  <si>
+    <t>AT_MU_AR_IDA_05</t>
+  </si>
+  <si>
+    <t>AT_MU_AR_IDA_06</t>
+  </si>
+  <si>
+    <t>AT_MU_AR_IDA_07</t>
+  </si>
+  <si>
+    <t>AT_MU_AR_IDA_01_D1</t>
+  </si>
+  <si>
+    <t>AT_MU_AR_IDA_02_D1</t>
+  </si>
+  <si>
+    <t>AT_MU_AR_IDA_03_D1</t>
+  </si>
+  <si>
+    <t>AT_MU_AR_IDA_04_D1</t>
+  </si>
+  <si>
+    <t>AT_MU_AR_IDA_05_D1</t>
+  </si>
+  <si>
+    <t>AT_MU_AR_IDA_06_D1</t>
+  </si>
+  <si>
+    <t>AT_MU_AR_IDA_07_D1</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1853,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1874,6 +1916,9 @@
     <xf numFmtId="49" fontId="4" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel_20_Built-in_20_Hyperlink" xfId="2"/>
@@ -4689,15 +4734,15 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
@@ -4857,13 +4902,128 @@
         <v>412</v>
       </c>
     </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C9" s="46">
+        <v>3393</v>
+      </c>
+      <c r="F9" t="s">
+        <v>310</v>
+      </c>
+      <c r="G9" s="29">
+        <v>232366</v>
+      </c>
+      <c r="J9" t="s">
+        <v>409</v>
+      </c>
+      <c r="K9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C10" s="46">
+        <v>3393</v>
+      </c>
+      <c r="G10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C11" s="46">
+        <v>3393</v>
+      </c>
+      <c r="F11" t="s">
+        <v>413</v>
+      </c>
+      <c r="G11" s="29">
+        <v>595959</v>
+      </c>
+      <c r="J11" t="s">
+        <v>414</v>
+      </c>
+      <c r="K11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C12" s="46">
+        <v>3393</v>
+      </c>
+      <c r="G12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C13" s="46">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C14" s="46">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C15" s="46">
+        <v>3393</v>
+      </c>
+      <c r="D15" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" t="s">
+        <v>412</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
     <hyperlink ref="G5" r:id="rId2"/>
+    <hyperlink ref="G10" r:id="rId3"/>
+    <hyperlink ref="G12" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -5449,8 +5609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4"/>

--- a/Ijarah_Arul/TestData/ijaraTestData.xlsx
+++ b/Ijarah_Arul/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="20" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="523">
   <si>
     <t>UserName</t>
   </si>
@@ -1585,6 +1585,27 @@
   </si>
   <si>
     <t>AT_MU_AR_IDA_07_D1</t>
+  </si>
+  <si>
+    <t>0285</t>
+  </si>
+  <si>
+    <t>userType17</t>
+  </si>
+  <si>
+    <t>AT_DC_CD_001_D1</t>
+  </si>
+  <si>
+    <t>3114</t>
+  </si>
+  <si>
+    <t>userType18</t>
+  </si>
+  <si>
+    <t>userType19</t>
+  </si>
+  <si>
+    <t>0370</t>
   </si>
 </sst>
 </file>
@@ -2221,8 +2242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2424,16 +2445,37 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="3"/>
@@ -2460,9 +2502,12 @@
     <hyperlink ref="C15" r:id="rId13"/>
     <hyperlink ref="C16" r:id="rId14"/>
     <hyperlink ref="C17" r:id="rId15"/>
+    <hyperlink ref="C18" r:id="rId16"/>
+    <hyperlink ref="C19" r:id="rId17"/>
+    <hyperlink ref="C20" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -4736,7 +4781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -5610,7 +5655,7 @@
   <dimension ref="A1:AMJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4"/>
@@ -5757,17 +5802,23 @@
       <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" ht="13.2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
+      <c r="A6" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>518</v>
+      </c>
+      <c r="C6" s="39">
+        <v>4874</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="13.2">
       <c r="A7" s="34"/>
@@ -5793,7 +5844,7 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Ijarah_Arul/TestData/ijaraTestData.xlsx
+++ b/Ijarah_Arul/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="21" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,14 @@
     <sheet name="AutoLoan_ReferenceDetails" sheetId="22" r:id="rId22"/>
     <sheet name="AutoLoan_ManualBank" sheetId="23" r:id="rId23"/>
     <sheet name="customerDebtExcelData" sheetId="25" r:id="rId24"/>
+    <sheet name="AutoLoan_CustomerDetails" sheetId="26" r:id="rId25"/>
   </sheets>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="536">
   <si>
     <t>UserName</t>
   </si>
@@ -1606,6 +1607,45 @@
   </si>
   <si>
     <t>0370</t>
+  </si>
+  <si>
+    <t>0362</t>
+  </si>
+  <si>
+    <t>userType20</t>
+  </si>
+  <si>
+    <t>AT_AL_AD_01</t>
+  </si>
+  <si>
+    <t>AT_AL_AD_01_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_OFF_CD_07</t>
+  </si>
+  <si>
+    <t>AT_AL_OFF_CD_08</t>
+  </si>
+  <si>
+    <t>AT_AL_OFF_CD_09</t>
+  </si>
+  <si>
+    <t>AT_AL_OFF_CD_10</t>
+  </si>
+  <si>
+    <t>AT_AL_OFF_CD_07_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_OFF_CD_08_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_OFF_CD_09_D1</t>
+  </si>
+  <si>
+    <t>AT_AL_OFF_CD_10_D1</t>
+  </si>
+  <si>
+    <t>PRERNA</t>
   </si>
 </sst>
 </file>
@@ -2242,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2437,10 +2477,10 @@
       <c r="A17" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2448,10 +2488,10 @@
       <c r="A18" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2459,10 +2499,10 @@
       <c r="A19" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2470,16 +2510,23 @@
       <c r="A20" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="3"/>
@@ -2505,9 +2552,10 @@
     <hyperlink ref="C18" r:id="rId16"/>
     <hyperlink ref="C19" r:id="rId17"/>
     <hyperlink ref="C20" r:id="rId18"/>
+    <hyperlink ref="C21" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -5466,7 +5514,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5655,7 +5703,7 @@
   <dimension ref="A1:AMJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4"/>
@@ -5836,6 +5884,95 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="1.0452999999999999" bottom="1.0452999999999999" header="0.84840000000000004" footer="0.84840000000000004"/>
   <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C2">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C3">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C4">
+        <v>4006</v>
+      </c>
+      <c r="D4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C5">
+        <v>4006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6172,16 +6309,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6204,6 +6341,17 @@
       </c>
       <c r="C2">
         <v>3061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C3">
+        <v>4006</v>
       </c>
     </row>
   </sheetData>

--- a/Ijarah_Arul/TestData/ijaraTestData.xlsx
+++ b/Ijarah_Arul/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="21" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="23" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -32,13 +32,15 @@
     <sheet name="AutoLoan_ManualBank" sheetId="23" r:id="rId23"/>
     <sheet name="customerDebtExcelData" sheetId="25" r:id="rId24"/>
     <sheet name="AutoLoan_CustomerDetails" sheetId="26" r:id="rId25"/>
+    <sheet name="PL_AppDetails_NewAPP_TestData" sheetId="27" r:id="rId26"/>
+    <sheet name="PersonalLoanExecution" sheetId="28" r:id="rId27"/>
   </sheets>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="612">
   <si>
     <t>UserName</t>
   </si>
@@ -580,9 +582,6 @@
     <t>in02040</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>2971</t>
   </si>
   <si>
@@ -1646,6 +1645,237 @@
   </si>
   <si>
     <t>PRERNA</t>
+  </si>
+  <si>
+    <t>record_reference_number</t>
+  </si>
+  <si>
+    <t>customer_type</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>id_type</t>
+  </si>
+  <si>
+    <t>id_number</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>product_dropdown</t>
+  </si>
+  <si>
+    <t>sub_product_dropdown</t>
+  </si>
+  <si>
+    <t>total_finance_amount_requested</t>
+  </si>
+  <si>
+    <t>declared_net_income_monthly</t>
+  </si>
+  <si>
+    <t>declared_current_obligation</t>
+  </si>
+  <si>
+    <t>special_promotion_campaign</t>
+  </si>
+  <si>
+    <t>sourcing_channel</t>
+  </si>
+  <si>
+    <t>Business_center_code</t>
+  </si>
+  <si>
+    <t>servicing_type</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>servicing_branch</t>
+  </si>
+  <si>
+    <t>spoke_location</t>
+  </si>
+  <si>
+    <t>closing_staff_servicing_staff_RM</t>
+  </si>
+  <si>
+    <t>Topup_type</t>
+  </si>
+  <si>
+    <t>topup_application_no</t>
+  </si>
+  <si>
+    <t>sourcing_type</t>
+  </si>
+  <si>
+    <t>sourcing_office</t>
+  </si>
+  <si>
+    <t>sourcing_entity</t>
+  </si>
+  <si>
+    <t>sourcing_staff</t>
+  </si>
+  <si>
+    <t>reference_type</t>
+  </si>
+  <si>
+    <t>reference_entity</t>
+  </si>
+  <si>
+    <t>reference_code</t>
+  </si>
+  <si>
+    <t>negative_input</t>
+  </si>
+  <si>
+    <t>special_character_input</t>
+  </si>
+  <si>
+    <t>character_input</t>
+  </si>
+  <si>
+    <t>3419</t>
+  </si>
+  <si>
+    <t>Individual Customer</t>
+  </si>
+  <si>
+    <t>Vikram</t>
+  </si>
+  <si>
+    <t>AADHAR CARD</t>
+  </si>
+  <si>
+    <t>123654789012</t>
+  </si>
+  <si>
+    <t>10-Aug-1998</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>DDA Housing Scheme-2014</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>Business Center-Corporate Banking</t>
+  </si>
+  <si>
+    <t>Financier</t>
+  </si>
+  <si>
+    <t>East Zone</t>
+  </si>
+  <si>
+    <t>Akrudi</t>
+  </si>
+  <si>
+    <t>anant</t>
+  </si>
+  <si>
+    <t>TOPUP</t>
+  </si>
+  <si>
+    <t>987456</t>
+  </si>
+  <si>
+    <t>South Zone</t>
+  </si>
+  <si>
+    <t>VENDOR</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>-10000</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>1111111</t>
+  </si>
+  <si>
+    <t>Azentio</t>
+  </si>
+  <si>
+    <t>dataSet_ID</t>
+  </si>
+  <si>
+    <t>ExecuteYes/No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>AT_PL_NewApp_01</t>
+  </si>
+  <si>
+    <t>AT_PL_NewApp_02</t>
+  </si>
+  <si>
+    <t>AT_PL_NewApp_03</t>
+  </si>
+  <si>
+    <t>AT_PL_NewApp_04</t>
+  </si>
+  <si>
+    <t>AT_PL_NewApp_05</t>
+  </si>
+  <si>
+    <t>AT_PL_NewApp_06</t>
+  </si>
+  <si>
+    <t>AT_PL_NewApp_07</t>
+  </si>
+  <si>
+    <t>DS01_AT_PL_NewApp_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_PL_NewApp_02</t>
+  </si>
+  <si>
+    <t>DS01_AT_PL_NewApp_03</t>
+  </si>
+  <si>
+    <t>DS01_AT_PL_NewApp_04</t>
+  </si>
+  <si>
+    <t>DS01_AT_PL_NewApp_05</t>
+  </si>
+  <si>
+    <t>DS01_AT_PL_NewApp_06</t>
+  </si>
+  <si>
+    <t>DS01_AT_PL_NewApp_07</t>
+  </si>
+  <si>
+    <t>5291</t>
+  </si>
+  <si>
+    <t>Personal Loan</t>
+  </si>
+  <si>
+    <t>Personal Loan-A Standard Personal Loan Finance</t>
+  </si>
+  <si>
+    <t>5307</t>
   </si>
 </sst>
 </file>
@@ -1655,7 +1885,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1731,8 +1961,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1784,6 +2027,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF3333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1901,7 +2162,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
@@ -1913,8 +2174,13 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1980,11 +2246,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Excel_20_Built-in_20_Hyperlink" xfId="2"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="8"/>
     <cellStyle name="Heading" xfId="3"/>
     <cellStyle name="Heading1" xfId="4"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Result" xfId="5"/>
@@ -2283,15 +2559,15 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2393,15 +2669,15 @@
         <v>179</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -2409,10 +2685,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -2420,10 +2696,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -2431,10 +2707,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>285</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>286</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -2442,10 +2718,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -2453,10 +2729,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -2464,10 +2740,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>387</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>388</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -2475,10 +2751,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -2486,10 +2762,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -2497,10 +2773,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -2508,10 +2784,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>521</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>522</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -2519,16 +2795,17 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
@@ -2553,9 +2830,10 @@
     <hyperlink ref="C19" r:id="rId17"/>
     <hyperlink ref="C20" r:id="rId18"/>
     <hyperlink ref="C21" r:id="rId19"/>
+    <hyperlink ref="C9" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -2569,14 +2847,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="9.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2653,18 +2931,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="26.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2807,21 +3085,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="26.5546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2992,25 +3270,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="72.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="61.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="27.109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -3024,46 +3302,46 @@
         <v>43</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="R1" s="31" t="s">
         <v>100</v>
@@ -3074,31 +3352,31 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2">
         <v>3588</v>
       </c>
       <c r="D2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" t="s">
         <v>205</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>206</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>207</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>208</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>209</v>
-      </c>
-      <c r="J2" t="s">
-        <v>210</v>
       </c>
       <c r="K2">
         <v>50000</v>
@@ -3107,7 +3385,7 @@
         <v>500</v>
       </c>
       <c r="N2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O2">
         <v>10</v>
@@ -3116,36 +3394,36 @@
         <v>10</v>
       </c>
       <c r="Q2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3">
         <v>3588</v>
       </c>
       <c r="D3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" t="s">
         <v>205</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>206</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>207</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>208</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>209</v>
-      </c>
-      <c r="J3" t="s">
-        <v>210</v>
       </c>
       <c r="K3">
         <v>50000</v>
@@ -3154,7 +3432,7 @@
         <v>500</v>
       </c>
       <c r="N3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O3">
         <v>10</v>
@@ -3163,36 +3441,36 @@
         <v>10</v>
       </c>
       <c r="Q3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4">
         <v>3047</v>
       </c>
       <c r="D4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" t="s">
         <v>205</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>206</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>207</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>208</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>209</v>
-      </c>
-      <c r="J4" t="s">
-        <v>210</v>
       </c>
       <c r="K4">
         <v>50000</v>
@@ -3201,7 +3479,7 @@
         <v>500</v>
       </c>
       <c r="N4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O4">
         <v>10</v>
@@ -3210,15 +3488,15 @@
         <v>10</v>
       </c>
       <c r="Q4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C5">
         <v>3572</v>
@@ -3226,10 +3504,10 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C6">
         <v>3572</v>
@@ -3237,19 +3515,19 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C7">
         <v>3572</v>
       </c>
       <c r="R7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="S7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -3268,11 +3546,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" customWidth="1"/>
-    <col min="26" max="26" width="24.88671875" customWidth="1"/>
-    <col min="27" max="27" width="21" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="21.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -3360,10 +3638,10 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>31</v>
@@ -3426,17 +3704,17 @@
         <v>42</v>
       </c>
       <c r="Y2" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3461,13 +3739,13 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3485,16 +3763,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>219</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>220</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>43</v>
@@ -3502,57 +3780,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>230</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3570,82 +3848,82 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="22.88671875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>219</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>220</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="R1" s="26" t="s">
         <v>246</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>247</v>
       </c>
       <c r="S1" s="26" t="s">
         <v>30</v>
@@ -3659,28 +3937,28 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" t="s">
         <v>248</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>249</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>250</v>
       </c>
-      <c r="G2" t="s">
-        <v>251</v>
-      </c>
       <c r="H2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I2" s="27">
         <v>45239</v>
@@ -3692,10 +3970,10 @@
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N2">
         <v>44</v>
@@ -3704,7 +3982,7 @@
         <v>45239</v>
       </c>
       <c r="P2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q2">
         <v>15</v>
@@ -3713,33 +3991,33 @@
         <v>22</v>
       </c>
       <c r="S2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" t="s">
         <v>248</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>249</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>250</v>
       </c>
-      <c r="G3" t="s">
-        <v>251</v>
-      </c>
       <c r="H3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I3" s="27">
         <v>45239</v>
@@ -3751,10 +4029,10 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N3">
         <v>44</v>
@@ -3763,7 +4041,7 @@
         <v>45239</v>
       </c>
       <c r="P3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q3">
         <v>15</v>
@@ -3772,39 +4050,39 @@
         <v>22</v>
       </c>
       <c r="S3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>277</v>
-      </c>
       <c r="D4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" t="s">
         <v>248</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>249</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>250</v>
       </c>
-      <c r="G4" t="s">
-        <v>251</v>
-      </c>
       <c r="H4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I4" s="27">
         <v>45239</v>
@@ -3816,10 +4094,10 @@
         <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N4">
         <v>44</v>
@@ -3828,7 +4106,7 @@
         <v>45239</v>
       </c>
       <c r="P4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q4">
         <v>15</v>
@@ -3837,7 +4115,7 @@
         <v>22</v>
       </c>
       <c r="S4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3853,61 +4131,61 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="22.88671875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>219</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>220</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>262</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>263</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>100</v>
@@ -3916,49 +4194,49 @@
         <v>101</v>
       </c>
       <c r="M1" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="O1" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="N1" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="R1" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="T1" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="U1" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="V1" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="W1" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="X1" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="Y1" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Z1" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="AA1" s="26" t="s">
         <v>246</v>
-      </c>
-      <c r="AA1" s="26" t="s">
-        <v>247</v>
       </c>
       <c r="AB1" s="26" t="s">
         <v>30</v>
@@ -3966,13 +4244,13 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -4002,13 +4280,13 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -4038,13 +4316,13 @@
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>280</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>281</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -4074,13 +4352,13 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -4090,10 +4368,10 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>282</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>283</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -4114,13 +4392,13 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4130,25 +4408,25 @@
       <c r="I6" s="30"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>283</v>
-      </c>
       <c r="M6" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="P6" s="5" t="s">
-        <v>251</v>
-      </c>
       <c r="Q6" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R6" s="30">
         <v>45239</v>
@@ -4160,10 +4438,10 @@
         <v>12</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W6" s="5">
         <v>44</v>
@@ -4172,7 +4450,7 @@
         <v>45239</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Z6" s="5">
         <v>15</v>
@@ -4181,7 +4459,7 @@
         <v>22</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -4199,18 +4477,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>219</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>220</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>43</v>
@@ -4224,52 +4502,52 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>351</v>
-      </c>
       <c r="D5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -4287,21 +4565,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>219</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>220</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>43</v>
@@ -4313,7 +4591,7 @@
         <v>101</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>30</v>
@@ -4321,69 +4599,69 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C3" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="D3" t="s">
         <v>369</v>
       </c>
-      <c r="D3" t="s">
-        <v>370</v>
-      </c>
       <c r="E3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G5" t="s">
         <v>372</v>
-      </c>
-      <c r="G5" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B6" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>368</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -4402,11 +4680,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4739,16 +5017,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>219</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>220</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>43</v>
@@ -4756,68 +5034,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>381</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -4835,24 +5113,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>219</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>220</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>43</v>
@@ -4864,79 +5142,79 @@
         <v>101</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>405</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>406</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>164</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>407</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G2" s="29">
         <v>232366</v>
       </c>
       <c r="J2" t="s">
+        <v>408</v>
+      </c>
+      <c r="K2" t="s">
         <v>409</v>
-      </c>
-      <c r="K2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G4" s="29">
         <v>595959</v>
       </c>
       <c r="J4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K4" t="s">
         <v>98</v>
@@ -4944,112 +5222,112 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="24" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>403</v>
-      </c>
       <c r="D8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C9" s="46">
         <v>3393</v>
       </c>
       <c r="F9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G9" s="29">
         <v>232366</v>
       </c>
       <c r="J9" t="s">
+        <v>408</v>
+      </c>
+      <c r="K9" t="s">
         <v>409</v>
-      </c>
-      <c r="K9" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C10" s="46">
         <v>3393</v>
       </c>
       <c r="G10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C11" s="46">
         <v>3393</v>
       </c>
       <c r="F11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G11" s="29">
         <v>595959</v>
       </c>
       <c r="J11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K11" t="s">
         <v>98</v>
@@ -5057,24 +5335,24 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C12" s="46">
         <v>3393</v>
       </c>
       <c r="G12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C13" s="46">
         <v>3393</v>
@@ -5082,10 +5360,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C14" s="46">
         <v>3393</v>
@@ -5093,19 +5371,19 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C15" s="46">
         <v>3393</v>
       </c>
       <c r="D15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -5130,36 +5408,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="22.88671875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>219</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>220</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>43</v>
@@ -5171,83 +5449,83 @@
         <v>101</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="R1" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="T1" s="26" t="s">
         <v>246</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>247</v>
       </c>
       <c r="U1" s="26" t="s">
         <v>30</v>
       </c>
       <c r="V1" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>251</v>
-      </c>
       <c r="J2" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K2" s="30">
         <v>45239</v>
@@ -5259,10 +5537,10 @@
         <v>12</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P2" s="5">
         <v>44</v>
@@ -5271,7 +5549,7 @@
         <v>45239</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S2" s="5">
         <v>15</v>
@@ -5280,18 +5558,18 @@
         <v>22</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -5305,7 +5583,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -5314,18 +5592,18 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -5348,13 +5626,13 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -5377,19 +5655,19 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -5410,30 +5688,30 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>433</v>
-      </c>
       <c r="J7" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K7" s="30">
         <v>45239</v>
@@ -5445,10 +5723,10 @@
         <v>23</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P7" s="5">
         <v>99</v>
@@ -5457,7 +5735,7 @@
         <v>45239</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S7" s="5">
         <v>23</v>
@@ -5466,18 +5744,18 @@
         <v>44</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -5491,7 +5769,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -5519,25 +5797,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>219</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>220</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>43</v>
@@ -5549,30 +5827,30 @@
         <v>101</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C2">
         <v>4138</v>
@@ -5580,113 +5858,113 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C3">
         <v>4138</v>
       </c>
       <c r="D3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C4">
         <v>4138</v>
       </c>
       <c r="F4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G4">
         <v>4343</v>
       </c>
       <c r="H4" t="s">
+        <v>457</v>
+      </c>
+      <c r="I4" t="s">
         <v>458</v>
-      </c>
-      <c r="I4" t="s">
-        <v>459</v>
       </c>
       <c r="J4">
         <v>55555</v>
       </c>
       <c r="K4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C5">
         <v>4138</v>
       </c>
       <c r="F5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C6">
         <v>4138</v>
       </c>
       <c r="F6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G6">
         <v>5656</v>
       </c>
       <c r="H6" t="s">
+        <v>461</v>
+      </c>
+      <c r="I6" t="s">
         <v>462</v>
-      </c>
-      <c r="I6" t="s">
-        <v>463</v>
       </c>
       <c r="J6">
         <v>77777</v>
       </c>
       <c r="K6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C7">
         <v>4138</v>
       </c>
       <c r="F7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C8">
         <v>4138</v>
@@ -5700,7 +5978,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -5708,99 +5986,99 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.5546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="1024" width="9.109375" style="34" customWidth="1"/>
-    <col min="1025" max="16384" width="20.5546875" style="37"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="36" width="19.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="36" width="23.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="36" width="20.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="36" width="12.88671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="36" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="36" width="30.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="36" width="16.88671875" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" style="36" width="15.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="36" width="7.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="36" width="14.88671875" collapsed="true"/>
+    <col min="12" max="1024" customWidth="true" style="34" width="9.109375" collapsed="true"/>
+    <col min="1025" max="16384" style="37" width="20.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>468</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>469</v>
       </c>
       <c r="C1" s="33" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>470</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>471</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="32" t="s">
         <v>472</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="32" t="s">
         <v>473</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>474</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>475</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>476</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="45" t="s">
+        <v>477</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>478</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="C2" s="35" t="s">
         <v>479</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="D2" s="35" t="s">
         <v>480</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="E2" s="35" t="s">
         <v>481</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="F2" s="35" t="s">
         <v>482</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="G2" s="35" t="s">
         <v>483</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="H2" s="35" t="s">
         <v>484</v>
       </c>
-      <c r="H2" s="35" t="s">
-        <v>485</v>
-      </c>
       <c r="I2" s="35" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J2" s="35" t="s">
         <v>98</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="45" t="s">
+        <v>486</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>487</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>488</v>
-      </c>
       <c r="C3" s="35" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
@@ -5813,13 +6091,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="45" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>489</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>490</v>
-      </c>
       <c r="C4" s="38" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
@@ -5832,10 +6110,10 @@
     </row>
     <row r="5" spans="1:11" ht="13.2">
       <c r="A5" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C5" s="39">
         <v>4650</v>
@@ -5851,10 +6129,10 @@
     </row>
     <row r="6" spans="1:11" ht="13.2">
       <c r="A6" s="41" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C6" s="39">
         <v>4874</v>
@@ -5891,25 +6169,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>468</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>469</v>
       </c>
       <c r="C1" s="33" t="s">
         <v>43</v>
@@ -5923,10 +6201,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C2">
         <v>4006</v>
@@ -5934,10 +6212,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C3">
         <v>4006</v>
@@ -5945,30 +6223,800 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C4">
         <v>4006</v>
       </c>
       <c r="D4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C5">
         <v>4006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AI8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="3" width="36.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="39.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="24.859375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="27.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="21.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="15.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="15.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="15.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="26.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="44.88671875" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="3" width="31.5546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="28.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="29.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="17.33203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="34.33203125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="22.109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="27.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="20.109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="28.44140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="30.5546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="15.109375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="22.6640625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="14.33203125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="18.6640625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="15.5546875" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="19.88671875" collapsed="true"/>
+    <col min="28" max="29" customWidth="true" style="3" width="20.44140625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="3" width="16.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="3" width="19.44140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="3" width="22.109375" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="3" width="19.109375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="3" width="19.0" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="3" width="20.0" collapsed="true"/>
+    <col min="36" max="16384" style="3" width="9.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35">
+      <c r="A1" s="47" t="s">
+        <v>467</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>535</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>536</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>538</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>539</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="N1" s="47" t="s">
+        <v>546</v>
+      </c>
+      <c r="O1" s="47" t="s">
+        <v>547</v>
+      </c>
+      <c r="P1" s="47" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q1" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="R1" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="S1" s="47" t="s">
+        <v>551</v>
+      </c>
+      <c r="T1" s="47" t="s">
+        <v>552</v>
+      </c>
+      <c r="U1" s="47" t="s">
+        <v>553</v>
+      </c>
+      <c r="V1" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="W1" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="X1" s="47" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y1" s="47" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z1" s="47" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA1" s="47" t="s">
+        <v>559</v>
+      </c>
+      <c r="AB1" s="47" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC1" s="48" t="s">
+        <v>561</v>
+      </c>
+      <c r="AD1" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="AE1" s="47" t="s">
+        <v>563</v>
+      </c>
+      <c r="AF1" s="47" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG1" s="47" t="s">
+        <v>565</v>
+      </c>
+      <c r="AH1" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI1" s="47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
+      <c r="A2" s="49" t="s">
+        <v>594</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>566</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>567</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>569</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>609</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>610</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>572</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>573</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>574</v>
+      </c>
+      <c r="N2" s="50" t="s">
+        <v>575</v>
+      </c>
+      <c r="O2" s="50" t="s">
+        <v>576</v>
+      </c>
+      <c r="P2" s="50" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q2" s="50" t="s">
+        <v>578</v>
+      </c>
+      <c r="R2" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="S2" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="T2" s="50" t="s">
+        <v>580</v>
+      </c>
+      <c r="U2" s="50" t="s">
+        <v>581</v>
+      </c>
+      <c r="V2" s="50" t="s">
+        <v>582</v>
+      </c>
+      <c r="W2" s="50" t="s">
+        <v>583</v>
+      </c>
+      <c r="X2" s="50" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y2" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="50" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA2" s="50" t="s">
+        <v>581</v>
+      </c>
+      <c r="AB2" s="50" t="s">
+        <v>585</v>
+      </c>
+      <c r="AC2" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD2" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="49" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>602</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>566</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>567</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>569</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="50" t="s">
+        <v>587</v>
+      </c>
+      <c r="AF3" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG3" s="50" t="s">
+        <v>588</v>
+      </c>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="49" t="s">
+        <v>596</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>603</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>566</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>567</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>569</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50" t="s">
+        <v>589</v>
+      </c>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="50" t="s">
+        <v>587</v>
+      </c>
+      <c r="AF4" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG4" s="50" t="s">
+        <v>588</v>
+      </c>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="49" t="s">
+        <v>597</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>604</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>566</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>567</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>569</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="50" t="s">
+        <v>587</v>
+      </c>
+      <c r="AF5" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG5" s="50" t="s">
+        <v>588</v>
+      </c>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="49" t="s">
+        <v>598</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>605</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>567</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>569</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>609</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>610</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>572</v>
+      </c>
+      <c r="L6" s="50" t="s">
+        <v>573</v>
+      </c>
+      <c r="M6" s="50" t="s">
+        <v>574</v>
+      </c>
+      <c r="N6" s="50" t="s">
+        <v>575</v>
+      </c>
+      <c r="O6" s="50" t="s">
+        <v>576</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q6" s="50" t="s">
+        <v>578</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="S6" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="T6" s="50" t="s">
+        <v>580</v>
+      </c>
+      <c r="U6" s="50" t="s">
+        <v>581</v>
+      </c>
+      <c r="V6" s="50" t="s">
+        <v>582</v>
+      </c>
+      <c r="W6" s="50" t="s">
+        <v>583</v>
+      </c>
+      <c r="X6" s="50" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y6" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z6" s="50" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA6" s="50" t="s">
+        <v>581</v>
+      </c>
+      <c r="AB6" s="50" t="s">
+        <v>585</v>
+      </c>
+      <c r="AC6" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD6" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" s="49" t="s">
+        <v>599</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>606</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>566</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>567</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>569</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="50" t="s">
+        <v>587</v>
+      </c>
+      <c r="AF7" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG7" s="50" t="s">
+        <v>588</v>
+      </c>
+      <c r="AH7" s="50" t="s">
+        <v>590</v>
+      </c>
+      <c r="AI7" s="50" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" s="49" t="s">
+        <v>600</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>607</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>566</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>567</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>569</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="50" t="s">
+        <v>587</v>
+      </c>
+      <c r="AF8" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG8" s="50" t="s">
+        <v>588</v>
+      </c>
+      <c r="AH8" s="50" t="s">
+        <v>590</v>
+      </c>
+      <c r="AI8" s="50" t="s">
+        <v>588</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AF3" r:id="rId1"/>
+    <hyperlink ref="AF4" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="49" t="s">
+        <v>594</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="49" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>602</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="49" t="s">
+        <v>596</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>603</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="49" t="s">
+        <v>597</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>604</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="49" t="s">
+        <v>598</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>605</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="49" t="s">
+        <v>599</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>606</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="49" t="s">
+        <v>600</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>607</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -5986,31 +7034,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="26.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="27.109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.5546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.88671875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="7" customFormat="1">
@@ -6253,9 +7301,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6317,8 +7365,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6345,10 +7393,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B3" t="s">
         <v>525</v>
-      </c>
-      <c r="B3" t="s">
-        <v>526</v>
       </c>
       <c r="C3">
         <v>4006</v>
@@ -6369,11 +7417,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="10" customFormat="1">
@@ -6528,9 +7576,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6570,15 +7618,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -6604,10 +7652,10 @@
         <v>95</v>
       </c>
       <c r="H1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>182</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6687,7 +7735,7 @@
         <v>98</v>
       </c>
       <c r="I5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -6707,26 +7755,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="30.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.44140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -6746,55 +7794,55 @@
         <v>101</v>
       </c>
       <c r="F1" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="U1" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>303</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -6833,7 +7881,7 @@
         <v>104</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>108</v>
@@ -6844,37 +7892,37 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C5" s="29">
         <v>3832</v>
       </c>
       <c r="F5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G5" t="s">
         <v>305</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I5" t="s">
         <v>306</v>
       </c>
-      <c r="H5" t="s">
-        <v>255</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>307</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>308</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>309</v>
       </c>
-      <c r="L5" t="s">
-        <v>310</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N5">
         <v>123</v>
@@ -6883,19 +7931,19 @@
         <v>123</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>336</v>
-      </c>
       <c r="S5" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="T5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U5">
         <v>5</v>
@@ -6906,16 +7954,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C6" s="29">
         <v>3832</v>
       </c>
       <c r="H6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -6923,37 +7971,37 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C7" s="29">
         <v>3832</v>
       </c>
       <c r="F7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G7" t="s">
         <v>325</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>326</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>327</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>328</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>329</v>
       </c>
-      <c r="K7" t="s">
-        <v>330</v>
-      </c>
       <c r="L7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N7">
         <v>456</v>
@@ -6962,19 +8010,19 @@
         <v>456</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="R7" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="S7" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>338</v>
-      </c>
       <c r="T7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U7">
         <v>7</v>
@@ -6985,24 +8033,24 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C8" s="29">
         <v>3832</v>
       </c>
       <c r="H8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C9" s="29">
         <v>3832</v>
@@ -7010,10 +8058,10 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C10" s="29">
         <v>3832</v>

--- a/Ijarah_Arul/TestData/ijaraTestData.xlsx
+++ b/Ijarah_Arul/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="23" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="24" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,14 @@
     <sheet name="AutoLoan_CustomerDetails" sheetId="26" r:id="rId25"/>
     <sheet name="PL_AppDetails_NewAPP_TestData" sheetId="27" r:id="rId26"/>
     <sheet name="PersonalLoanExecution" sheetId="28" r:id="rId27"/>
+    <sheet name="AutoLoanExecution" sheetId="29" r:id="rId28"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="711">
   <si>
     <t>UserName</t>
   </si>
@@ -1875,7 +1876,304 @@
     <t>Personal Loan-A Standard Personal Loan Finance</t>
   </si>
   <si>
-    <t>5307</t>
+    <t>application_type</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>middle_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>maritail_status</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>residential_status</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>no_of_dependents</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>numeric_input</t>
+  </si>
+  <si>
+    <t>Primary Applicant</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Resident</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Accomodation</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>AT_PL_NewApp_08</t>
+  </si>
+  <si>
+    <t>AT_PL_NewApp_09</t>
+  </si>
+  <si>
+    <t>AT_PL_NewApp_10</t>
+  </si>
+  <si>
+    <t>DS01_AT_PL_NewApp_08</t>
+  </si>
+  <si>
+    <t>DS01_AT_PL_NewApp_09</t>
+  </si>
+  <si>
+    <t>DS01_AT_PL_NewApp_10</t>
+  </si>
+  <si>
+    <t>customer_type_dropdown</t>
+  </si>
+  <si>
+    <t>salutation</t>
+  </si>
+  <si>
+    <t>father_first_name</t>
+  </si>
+  <si>
+    <t>father_middle_name</t>
+  </si>
+  <si>
+    <t>father_last_name</t>
+  </si>
+  <si>
+    <t>spouse_first_name</t>
+  </si>
+  <si>
+    <t>spouse_middle_name</t>
+  </si>
+  <si>
+    <t>spouse_last_name</t>
+  </si>
+  <si>
+    <t>no_of_children</t>
+  </si>
+  <si>
+    <t>spouse_status</t>
+  </si>
+  <si>
+    <t>education_level</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>mothers_maiden_name</t>
+  </si>
+  <si>
+    <t>type_of_residency</t>
+  </si>
+  <si>
+    <t>industry_segmentation</t>
+  </si>
+  <si>
+    <t>is_income_considered</t>
+  </si>
+  <si>
+    <t>customer_profile</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>politically_exposed</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>mobile_number_primary</t>
+  </si>
+  <si>
+    <t>mobile_number_secondary</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>prefered_contact_method</t>
+  </si>
+  <si>
+    <t>prefered_time_for_contact</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Not Working</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>HINDU</t>
+  </si>
+  <si>
+    <t>Shushma</t>
+  </si>
+  <si>
+    <t>Self owned</t>
+  </si>
+  <si>
+    <t>Small Software Companies. (Small Software Companies have an employee strength less than 50 people or total turnover less than Rs.50 crore)</t>
+  </si>
+  <si>
+    <t>SON</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>9657785656</t>
+  </si>
+  <si>
+    <t>9874556328</t>
+  </si>
+  <si>
+    <t>9654120147</t>
+  </si>
+  <si>
+    <t>test098@gmail.com</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>Clsification</t>
+  </si>
+  <si>
+    <t>scheme</t>
+  </si>
+  <si>
+    <t>program_code</t>
+  </si>
+  <si>
+    <t>facility_type</t>
+  </si>
+  <si>
+    <t>pricing_or_interest_indecator</t>
+  </si>
+  <si>
+    <t>requested_amount</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>loan_tenure</t>
+  </si>
+  <si>
+    <t>declared_downpayment_amount</t>
+  </si>
+  <si>
+    <t>asset_price</t>
+  </si>
+  <si>
+    <t>Rupee</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>5299</t>
+  </si>
+  <si>
+    <t>A Standard Personal Loan Scheme - Flat Fixed Rate</t>
+  </si>
+  <si>
+    <t>PL-Standard Finance-Fixed Rate</t>
+  </si>
+  <si>
+    <t>AT_PL_NewApp_11</t>
+  </si>
+  <si>
+    <t>AT_PL_NewApp_12</t>
+  </si>
+  <si>
+    <t>AT_PL_NewApp_13</t>
+  </si>
+  <si>
+    <t>AT_PL_NewApp_14</t>
+  </si>
+  <si>
+    <t>AT_PL_NewApp_15</t>
+  </si>
+  <si>
+    <t>AT_PL_NewApp_16</t>
+  </si>
+  <si>
+    <t>DS01_AT_PL_NewApp_11</t>
+  </si>
+  <si>
+    <t>DS01_AT_PL_NewApp_12</t>
+  </si>
+  <si>
+    <t>DS01_AT_PL_NewApp_13</t>
+  </si>
+  <si>
+    <t>DS01_AT_PL_NewApp_14</t>
+  </si>
+  <si>
+    <t>DS01_AT_PL_NewApp_15</t>
+  </si>
+  <si>
+    <t>DS01_AT_PL_NewApp_16</t>
+  </si>
+  <si>
+    <t>1400000</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>1800000</t>
   </si>
 </sst>
 </file>
@@ -1975,7 +2273,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2045,6 +2343,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2180,7 +2490,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2254,6 +2564,10 @@
     <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="14" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Excel_20_Built-in_20_Hyperlink" xfId="2"/>
@@ -2559,15 +2873,15 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2847,14 +3161,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2931,18 +3245,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.5546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="26.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3085,21 +3399,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="26.5546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="24.109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="20.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3270,25 +3584,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="72.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="61.88671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="27.109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="72.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="61.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -3546,11 +3860,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="21" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -3763,8 +4077,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3848,26 +4162,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="22.88671875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="24.109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="24.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -4131,29 +4445,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="22.88671875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="22.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -4477,10 +4791,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4557,7 +4871,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:E1"/>
@@ -4565,13 +4879,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4680,11 +4994,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -5017,8 +5331,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.44140625" collapsed="true"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5108,21 +5422,21 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5403,33 +5717,33 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="37.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="22.88671875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="24.109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="22.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="24.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -5792,22 +6106,22 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5978,7 +6292,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:AMJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -5986,18 +6300,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="36" width="19.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="36" width="23.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="36" width="20.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="36" width="12.88671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="36" width="14.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="36" width="30.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="36" width="16.88671875" collapsed="true"/>
-    <col min="8" max="9" bestFit="true" customWidth="true" style="36" width="15.5546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="36" width="7.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="36" width="14.88671875" collapsed="true"/>
-    <col min="12" max="1024" customWidth="true" style="34" width="9.109375" collapsed="true"/>
-    <col min="1025" max="16384" style="37" width="20.5546875" collapsed="true"/>
+    <col min="1" max="1" width="19.88671875" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.33203125" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.6640625" style="36" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.88671875" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.33203125" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.5546875" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.88671875" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="15.5546875" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.6640625" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="1024" width="9.109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="1025" max="16384" width="20.5546875" style="37" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -6170,16 +6484,16 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6256,51 +6570,73 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:CL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="CC1" workbookViewId="0">
+      <selection activeCell="CQ18" sqref="CQ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="36.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="39.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="24.859375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="27.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="21.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="15.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="15.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="15.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="26.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="44.88671875" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" style="3" width="31.5546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="28.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="3" width="29.33203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="3" width="17.33203125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="3" width="34.33203125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="3" width="22.109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="3" width="27.0" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="3" width="20.109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="3" width="28.44140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="3" width="30.5546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="3" width="15.109375" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="3" width="22.6640625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="3" width="14.33203125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="3" width="18.6640625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="3" width="15.5546875" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="3" width="19.88671875" collapsed="true"/>
-    <col min="28" max="29" customWidth="true" style="3" width="20.44140625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="3" width="16.0" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="3" width="19.44140625" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="3" width="22.109375" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="3" width="19.109375" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="3" width="19.0" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="3" width="20.0" collapsed="true"/>
-    <col min="36" max="16384" style="3" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="17" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="44.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="31.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="29.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="34.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="28.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="30.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="22.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="18.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="15.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="19.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="29" width="20.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="16" style="3" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="19.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="22.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="19.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="19" style="3" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="20" style="3" customWidth="1" collapsed="1"/>
+    <col min="36" max="61" width="9.109375" style="3" collapsed="1"/>
+    <col min="62" max="62" width="18.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="20.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="71" width="9.109375" style="3" collapsed="1"/>
+    <col min="72" max="72" width="23.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="12.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="12.44140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="25.5546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="24.109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="12.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="15.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="14.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="80" width="26.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="16.5546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="8" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="10.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="28.44140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="10.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="20.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="87" width="14" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="88" max="88" width="9.109375" style="3" collapsed="1"/>
+    <col min="89" max="90" width="9.109375" style="3"/>
+    <col min="91" max="16384" width="9.109375" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:87">
       <c r="A1" s="47" t="s">
         <v>467</v>
       </c>
@@ -6406,8 +6742,164 @@
       <c r="AI1" s="47" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="47" t="s">
+        <v>639</v>
+      </c>
+      <c r="AK1" s="47" t="s">
+        <v>611</v>
+      </c>
+      <c r="AL1" s="47" t="s">
+        <v>640</v>
+      </c>
+      <c r="AM1" s="47" t="s">
+        <v>612</v>
+      </c>
+      <c r="AN1" s="47" t="s">
+        <v>613</v>
+      </c>
+      <c r="AO1" s="47" t="s">
+        <v>614</v>
+      </c>
+      <c r="AP1" s="47" t="s">
+        <v>641</v>
+      </c>
+      <c r="AQ1" s="47" t="s">
+        <v>642</v>
+      </c>
+      <c r="AR1" s="47" t="s">
+        <v>643</v>
+      </c>
+      <c r="AS1" s="47" t="s">
+        <v>644</v>
+      </c>
+      <c r="AT1" s="47" t="s">
+        <v>645</v>
+      </c>
+      <c r="AU1" s="47" t="s">
+        <v>646</v>
+      </c>
+      <c r="AV1" s="47" t="s">
+        <v>647</v>
+      </c>
+      <c r="AW1" s="47" t="s">
+        <v>648</v>
+      </c>
+      <c r="AX1" s="47" t="s">
+        <v>615</v>
+      </c>
+      <c r="AY1" s="47" t="s">
+        <v>649</v>
+      </c>
+      <c r="AZ1" s="47" t="s">
+        <v>616</v>
+      </c>
+      <c r="BA1" s="47" t="s">
+        <v>617</v>
+      </c>
+      <c r="BB1" s="47" t="s">
+        <v>650</v>
+      </c>
+      <c r="BC1" s="47" t="s">
+        <v>651</v>
+      </c>
+      <c r="BD1" s="47" t="s">
+        <v>618</v>
+      </c>
+      <c r="BE1" s="47" t="s">
+        <v>619</v>
+      </c>
+      <c r="BF1" s="47" t="s">
+        <v>620</v>
+      </c>
+      <c r="BG1" s="47" t="s">
+        <v>652</v>
+      </c>
+      <c r="BH1" s="47" t="s">
+        <v>653</v>
+      </c>
+      <c r="BI1" s="47" t="s">
+        <v>654</v>
+      </c>
+      <c r="BJ1" s="47" t="s">
+        <v>655</v>
+      </c>
+      <c r="BK1" s="47" t="s">
+        <v>656</v>
+      </c>
+      <c r="BL1" s="47" t="s">
+        <v>657</v>
+      </c>
+      <c r="BM1" s="47" t="s">
+        <v>658</v>
+      </c>
+      <c r="BN1" s="47" t="s">
+        <v>621</v>
+      </c>
+      <c r="BO1" s="47" t="s">
+        <v>659</v>
+      </c>
+      <c r="BP1" s="47" t="s">
+        <v>660</v>
+      </c>
+      <c r="BQ1" s="47" t="s">
+        <v>661</v>
+      </c>
+      <c r="BR1" s="47" t="s">
+        <v>662</v>
+      </c>
+      <c r="BS1" s="47" t="s">
+        <v>663</v>
+      </c>
+      <c r="BT1" s="47" t="s">
+        <v>664</v>
+      </c>
+      <c r="BU1" s="47" t="s">
+        <v>622</v>
+      </c>
+      <c r="BV1" s="47" t="s">
+        <v>681</v>
+      </c>
+      <c r="BW1" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="BX1" s="47" t="s">
+        <v>682</v>
+      </c>
+      <c r="BY1" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="BZ1" s="47" t="s">
+        <v>684</v>
+      </c>
+      <c r="CA1" s="47" t="s">
+        <v>551</v>
+      </c>
+      <c r="CB1" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="CC1" s="47" t="s">
+        <v>686</v>
+      </c>
+      <c r="CD1" s="47" t="s">
+        <v>687</v>
+      </c>
+      <c r="CE1" s="47" t="s">
+        <v>688</v>
+      </c>
+      <c r="CF1" s="47" t="s">
+        <v>689</v>
+      </c>
+      <c r="CG1" s="47" t="s">
+        <v>690</v>
+      </c>
+      <c r="CH1" s="47" t="s">
+        <v>564</v>
+      </c>
+      <c r="CI1" s="47" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="2" spans="1:87">
       <c r="A2" s="49" t="s">
         <v>594</v>
       </c>
@@ -6504,7 +6996,7 @@
       <c r="AH2" s="49"/>
       <c r="AI2" s="49"/>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:87">
       <c r="A3" s="49" t="s">
         <v>595</v>
       </c>
@@ -6563,7 +7055,7 @@
       <c r="AH3" s="49"/>
       <c r="AI3" s="49"/>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:87">
       <c r="A4" s="49" t="s">
         <v>596</v>
       </c>
@@ -6624,7 +7116,7 @@
       <c r="AH4" s="49"/>
       <c r="AI4" s="49"/>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:87">
       <c r="A5" s="49" t="s">
         <v>597</v>
       </c>
@@ -6683,7 +7175,7 @@
       <c r="AH5" s="49"/>
       <c r="AI5" s="49"/>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:87">
       <c r="A6" s="49" t="s">
         <v>598</v>
       </c>
@@ -6691,7 +7183,7 @@
         <v>605</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>567</v>
@@ -6780,7 +7272,7 @@
       <c r="AH6" s="49"/>
       <c r="AI6" s="49"/>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:87">
       <c r="A7" s="49" t="s">
         <v>599</v>
       </c>
@@ -6843,7 +7335,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:87">
       <c r="A8" s="49" t="s">
         <v>600</v>
       </c>
@@ -6868,67 +7360,422 @@
       <c r="H8" s="50" t="s">
         <v>571</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="50" t="s">
-        <v>587</v>
-      </c>
-      <c r="AF8" s="53" t="s">
+      <c r="AF8" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="AJ8" s="51" t="s">
+        <v>567</v>
+      </c>
+      <c r="AK8" s="51" t="s">
+        <v>623</v>
+      </c>
+      <c r="AL8" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM8" s="50" t="s">
+        <v>665</v>
+      </c>
+      <c r="AN8" s="50" t="s">
+        <v>665</v>
+      </c>
+      <c r="AO8" s="50" t="s">
+        <v>665</v>
+      </c>
+      <c r="AP8" s="50" t="s">
+        <v>665</v>
+      </c>
+      <c r="AQ8" s="50" t="s">
+        <v>665</v>
+      </c>
+      <c r="AR8" s="50" t="s">
+        <v>665</v>
+      </c>
+      <c r="AS8" s="50" t="s">
+        <v>665</v>
+      </c>
+      <c r="AT8" s="50" t="s">
+        <v>665</v>
+      </c>
+      <c r="AU8" s="50" t="s">
+        <v>665</v>
+      </c>
+      <c r="AV8" s="50" t="s">
+        <v>666</v>
+      </c>
+      <c r="AW8" s="51" t="s">
+        <v>667</v>
+      </c>
+      <c r="AX8" s="51" t="s">
+        <v>624</v>
+      </c>
+      <c r="AY8" s="51" t="s">
+        <v>626</v>
+      </c>
+      <c r="AZ8" s="51" t="s">
+        <v>625</v>
+      </c>
+      <c r="BA8" s="51" t="s">
+        <v>627</v>
+      </c>
+      <c r="BB8" s="51" t="s">
+        <v>668</v>
+      </c>
+      <c r="BC8" s="51" t="s">
+        <v>669</v>
+      </c>
+      <c r="BD8" s="51" t="s">
+        <v>628</v>
+      </c>
+      <c r="BE8" s="51" t="s">
+        <v>629</v>
+      </c>
+      <c r="BF8" s="50" t="s">
+        <v>666</v>
+      </c>
+      <c r="BG8" s="50" t="s">
+        <v>670</v>
+      </c>
+      <c r="BH8" s="51" t="s">
+        <v>671</v>
+      </c>
+      <c r="BI8" s="51" t="s">
+        <v>630</v>
+      </c>
+      <c r="BJ8" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="BK8" s="51" t="s">
+        <v>672</v>
+      </c>
+      <c r="BL8" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="BM8" s="51" t="s">
+        <v>674</v>
+      </c>
+      <c r="BN8" s="50" t="s">
+        <v>631</v>
+      </c>
+      <c r="BO8" s="50" t="s">
+        <v>675</v>
+      </c>
+      <c r="BP8" s="50" t="s">
+        <v>676</v>
+      </c>
+      <c r="BQ8" s="50" t="s">
+        <v>677</v>
+      </c>
+      <c r="BR8" s="53" t="s">
+        <v>678</v>
+      </c>
+      <c r="BS8" s="51" t="s">
+        <v>679</v>
+      </c>
+      <c r="BT8" s="50" t="s">
+        <v>680</v>
+      </c>
+      <c r="BU8" s="55"/>
+    </row>
+    <row r="9" spans="1:87">
+      <c r="A9" s="49" t="s">
+        <v>633</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>566</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>567</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>569</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="AF9" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ9" s="55"/>
+      <c r="AK9" s="55"/>
+      <c r="AL9" s="55"/>
+      <c r="AM9" s="55"/>
+      <c r="AN9" s="55"/>
+      <c r="AO9" s="55"/>
+      <c r="AP9" s="55"/>
+      <c r="AQ9" s="55"/>
+      <c r="AR9" s="55"/>
+      <c r="AS9" s="55"/>
+      <c r="AT9" s="55"/>
+      <c r="AU9" s="55"/>
+      <c r="AV9" s="55"/>
+      <c r="AW9" s="55"/>
+      <c r="AX9" s="55"/>
+      <c r="AY9" s="55"/>
+      <c r="AZ9" s="55"/>
+      <c r="BA9" s="55"/>
+      <c r="BB9" s="55"/>
+      <c r="BC9" s="55"/>
+      <c r="BD9" s="55"/>
+      <c r="BE9" s="55"/>
+      <c r="BF9" s="55"/>
+      <c r="BG9" s="55"/>
+      <c r="BH9" s="55"/>
+      <c r="BI9" s="55"/>
+      <c r="BJ9" s="55"/>
+      <c r="BK9" s="55"/>
+      <c r="BL9" s="55"/>
+      <c r="BM9" s="55"/>
+      <c r="BN9" s="55"/>
+      <c r="BO9" s="55"/>
+      <c r="BP9" s="55"/>
+      <c r="BQ9" s="55"/>
+      <c r="BR9" s="55"/>
+      <c r="BS9" s="55"/>
+      <c r="BT9" s="55"/>
+      <c r="BU9" s="49" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:87">
+      <c r="A10" s="49" t="s">
+        <v>634</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>637</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>693</v>
+      </c>
+      <c r="BL10" s="56"/>
+      <c r="BM10" s="56"/>
+      <c r="BN10" s="56"/>
+      <c r="BO10" s="56"/>
+      <c r="BP10" s="56"/>
+      <c r="BQ10" s="56"/>
+      <c r="BR10" s="56"/>
+      <c r="BS10" s="56"/>
+      <c r="BT10" s="56"/>
+      <c r="BU10" s="56"/>
+      <c r="BV10" s="51" t="s">
+        <v>609</v>
+      </c>
+      <c r="BW10" s="51" t="s">
+        <v>610</v>
+      </c>
+      <c r="BX10" s="51" t="s">
+        <v>694</v>
+      </c>
+      <c r="BY10" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="BZ10" s="51" t="s">
+        <v>609</v>
+      </c>
+      <c r="CA10" s="51"/>
+      <c r="CB10" s="51" t="s">
+        <v>695</v>
+      </c>
+      <c r="CC10" s="50" t="s">
+        <v>572</v>
+      </c>
+      <c r="CD10" s="51" t="s">
+        <v>691</v>
+      </c>
+      <c r="CE10" s="50">
+        <v>60</v>
+      </c>
+      <c r="CF10" s="50" t="s">
+        <v>692</v>
+      </c>
+      <c r="CG10" s="50"/>
+      <c r="CH10" s="56"/>
+      <c r="CI10" s="56"/>
+    </row>
+    <row r="11" spans="1:87">
+      <c r="A11" s="49" t="s">
+        <v>635</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>638</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>693</v>
+      </c>
+      <c r="BL11" s="56"/>
+      <c r="BM11" s="56"/>
+      <c r="BN11" s="56"/>
+      <c r="BO11" s="56"/>
+      <c r="BP11" s="56"/>
+      <c r="BQ11" s="56"/>
+      <c r="BR11" s="56"/>
+      <c r="BS11" s="56"/>
+      <c r="BT11" s="56"/>
+      <c r="BU11" s="56"/>
+      <c r="BV11" s="56"/>
+      <c r="BW11" s="56"/>
+      <c r="BX11" s="57"/>
+      <c r="BY11" s="56"/>
+      <c r="BZ11" s="56"/>
+      <c r="CA11" s="56"/>
+      <c r="CH11" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="CI11" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:87">
+      <c r="A12" s="49" t="s">
+        <v>696</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>702</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>693</v>
+      </c>
+      <c r="BV12" s="56"/>
+      <c r="BW12" s="56"/>
+      <c r="BX12" s="56"/>
+      <c r="BY12" s="56"/>
+      <c r="BZ12" s="56"/>
+      <c r="CA12" s="56"/>
+      <c r="CB12" s="56"/>
+      <c r="CC12" s="56" t="s">
+        <v>708</v>
+      </c>
+      <c r="CD12" s="56"/>
+      <c r="CE12" s="56" t="s">
+        <v>709</v>
+      </c>
+      <c r="CF12" s="56"/>
+      <c r="CG12" s="56" t="s">
+        <v>710</v>
+      </c>
+      <c r="CH12" s="56"/>
+      <c r="CI12" s="56"/>
+    </row>
+    <row r="13" spans="1:87">
+      <c r="A13" s="49" t="s">
+        <v>697</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>703</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>693</v>
+      </c>
+      <c r="AH13" s="56" t="s">
+        <v>708</v>
+      </c>
+      <c r="AI13" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="AG8" s="50" t="s">
-        <v>588</v>
-      </c>
-      <c r="AH8" s="50" t="s">
-        <v>590</v>
-      </c>
-      <c r="AI8" s="50" t="s">
-        <v>588</v>
+      <c r="BV13" s="56"/>
+      <c r="BW13" s="56"/>
+      <c r="BX13" s="56"/>
+      <c r="BY13" s="56"/>
+      <c r="BZ13" s="56"/>
+      <c r="CA13" s="56"/>
+      <c r="CB13" s="56"/>
+      <c r="CC13" s="56"/>
+      <c r="CD13" s="56"/>
+      <c r="CE13" s="56"/>
+      <c r="CF13" s="56"/>
+      <c r="CG13" s="56"/>
+      <c r="CH13" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="CI13" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:87">
+      <c r="A14" s="49" t="s">
+        <v>698</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>704</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:87">
+      <c r="A15" s="49" t="s">
+        <v>699</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>705</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="16" spans="1:87">
+      <c r="A16" s="49" t="s">
+        <v>700</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>706</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="49" t="s">
+        <v>701</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>707</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>693</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AF3" r:id="rId1"/>
     <hyperlink ref="AF4" r:id="rId2"/>
+    <hyperlink ref="BR8" r:id="rId3"/>
+    <hyperlink ref="AF8" r:id="rId4"/>
+    <hyperlink ref="AF9" r:id="rId5"/>
+    <hyperlink ref="AI13" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="25.77734375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7016,6 +7863,422 @@
         <v>607</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="49" t="s">
+        <v>633</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="49" t="s">
+        <v>634</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>637</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="49" t="s">
+        <v>635</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>638</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="49" t="s">
+        <v>696</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>702</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="49" t="s">
+        <v>697</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>703</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="49" t="s">
+        <v>698</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>704</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="49" t="s">
+        <v>699</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>705</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="49" t="s">
+        <v>700</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>706</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="49" t="s">
+        <v>701</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>707</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>593</v>
       </c>
     </row>
@@ -7034,31 +8297,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="26.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="27.109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="7.5546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="6.88671875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="7" customFormat="1">
@@ -7301,9 +8564,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7360,13 +8623,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7417,11 +8680,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="10" customFormat="1">
@@ -7576,9 +8839,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7618,15 +8881,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.88671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -7755,26 +9018,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.44140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="20.5546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="1" max="1" width="30.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="20.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
